--- a/Querys_Conferencia/Querys_Conferencia.xlsx
+++ b/Querys_Conferencia/Querys_Conferencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="52">
   <si>
     <t>Solução</t>
   </si>
@@ -49,13 +49,136 @@
   </si>
   <si>
     <t>N:\Migracao\Querys_Conferencia\Cap_Depto.sql</t>
+  </si>
+  <si>
+    <t>Relatorio Cancelamento</t>
+  </si>
+  <si>
+    <t>Data Consulta</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.com.ods_hist_alt_ati_can_prod: 1.605.220 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ln.dbo.stg_sku: 18.754 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas: mis_ods.com.ods_hist_alt_ati_can_prod e mis_ln.dbo.stg_sku: 15.953 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros inexistente na tabela mis_ln.dbo.stg_sku e existente na tabela mis_ods.com.ods_hist_alt_ati_can_prod : 1.589.267</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Relatorio_Cancelamento.sql</t>
+  </si>
+  <si>
+    <t>Volumetria</t>
+  </si>
+  <si>
+    <t>A tabela está vazia</t>
+  </si>
+  <si>
+    <t>Transporte Analítico</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.trans.ods_analitico: 985</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_staging.trans.stg_analitico: 1002 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_ods.trans.ods_analitico e mis_staging.trans.stg_analitico: 985</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Transporte_Analitico.sql</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.trans.ods_transportes_detalhe: 129 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_staging.trans.stg_transportes: 129 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_ods.trans.ods_transportes_detalhe e mis_staging.trans.stg_transportes: 129 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existente em mis_staging.trans.stg_transportes e inexistentes na tabela mis_ods.trans.ods_transportes_detalhe: 0 registros</t>
+  </si>
+  <si>
+    <t>ods_transportes_detalhe</t>
+  </si>
+  <si>
+    <t>Tabela Gerada</t>
+  </si>
+  <si>
+    <t>ods_transportes_prerateio</t>
+  </si>
+  <si>
+    <t>Qtd  registros na tabela mis_ods.trans.ods_transportes_prerateio: 129 registros</t>
+  </si>
+  <si>
+    <t>Qtd  registros na tabela mis_ods.trans.ods_transportes_detalhe: 129 registros</t>
+  </si>
+  <si>
+    <t>Qtd  registros existentes em ambas tabelas mis_ods.trans.ods_transportes_prerateio e mis_ods.trans.ods_transportes_detalhe: 129 registros</t>
+  </si>
+  <si>
+    <t>Qtd  registros existente em mis_ods.trans.ods_transportes_detalhe e inexistentes na tabela mis_ods.trans.ods_transportes_prerateio: 0 registros</t>
+  </si>
+  <si>
+    <t>ods_transportes_rateada</t>
+  </si>
+  <si>
+    <t>ods_transportes</t>
+  </si>
+  <si>
+    <t>Qtd  registros na tabela mis_ods.trans.ods_transportes_rateada: 129 registros</t>
+  </si>
+  <si>
+    <t>Qtd  registros existentes em ambas tabelas mis_ods.trans.ods_transportes_rateada e mis_ods.trans.ods_transportes_prerateio: 129 registros</t>
+  </si>
+  <si>
+    <t>Qtd  registros existente em mis_ods.trans.ods_transportes_prerateio e inexistentes na tabela mis_ods.trans.ods_transportes_rateada: 0 registros</t>
+  </si>
+  <si>
+    <t>Qtd  registros na tabela mis_ods.trans.ods_transportes: 130 registros</t>
+  </si>
+  <si>
+    <t>Qtd  registros existentes em ambas tabelas mis_ods.trans.ods_transportes e mis_ods.trans.ods_transportes_rateada: 129 registros</t>
+  </si>
+  <si>
+    <t>Qtd  registros existente em mis_ods.trans.ods_transportes e inexistentes na tabela mis_ods.trans.ods_transportes_rateada: 0 registros</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Transporte.sql</t>
+  </si>
+  <si>
+    <t>ods_cap_depto</t>
+  </si>
+  <si>
+    <t>ods_hist_alt_ati_can_prod</t>
+  </si>
+  <si>
+    <t>ods_analitico</t>
+  </si>
+  <si>
+    <t>ods_volumetria_detalhe</t>
+  </si>
+  <si>
+    <t>ods_local</t>
+  </si>
+  <si>
+    <t>ods_volumetria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +191,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -91,14 +220,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <font>
         <strike val="0"/>
@@ -150,10 +296,46 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -183,10 +365,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Solução" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:F31">
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Solução" dataDxfId="7"/>
+    <tableColumn id="6" name="Tabela Gerada" dataDxfId="6"/>
+    <tableColumn id="5" name="Data Consulta" dataDxfId="5"/>
     <tableColumn id="2" name="Observação" dataDxfId="4"/>
     <tableColumn id="3" name="Servidor" dataDxfId="3"/>
     <tableColumn id="4" name="Local Script" dataDxfId="2"/>
@@ -480,88 +667,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="115.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5">
+        <v>42107</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42107</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5">
+        <v>42107</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5">
+        <v>42107</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="6">
+        <v>42108</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -588,9 +1316,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Querys_Conferencia/Querys_Conferencia.xlsx
+++ b/Querys_Conferencia/Querys_Conferencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="126">
   <si>
     <t>Solução</t>
   </si>
@@ -300,66 +300,6 @@
     <t>Qtd registros existentes em ambas tabelas mis_ods.fin.ods_sige_titulo_receber_transacao e mis_ods.fin.ods_sige_titulo_receber_movimento: 294 registros</t>
   </si>
   <si>
-    <t>ID_SKU</t>
-  </si>
-  <si>
-    <t>ID_ITEM</t>
-  </si>
-  <si>
-    <t>CLAL</t>
-  </si>
-  <si>
-    <t>LOCAL</t>
-  </si>
-  <si>
-    <t>ID_FILIAL</t>
-  </si>
-  <si>
-    <t>ID_DEPOS</t>
-  </si>
-  <si>
-    <t>QTDE</t>
-  </si>
-  <si>
-    <t>PESO_UNIT</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>PPA0</t>
-  </si>
-  <si>
-    <t>PP0100100</t>
-  </si>
-  <si>
-    <t>nr_sku_produto</t>
-  </si>
-  <si>
-    <t>nr_item_produto</t>
-  </si>
-  <si>
-    <t>ds_classe_local</t>
-  </si>
-  <si>
-    <t>nr_filial</t>
-  </si>
-  <si>
-    <t>nr_deposito</t>
-  </si>
-  <si>
-    <t>qtde</t>
-  </si>
-  <si>
-    <t>vl_peso_unitario</t>
-  </si>
-  <si>
-    <t>vl_m3</t>
-  </si>
-  <si>
-    <t>ds_local</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_ods.log.ods_volumetria_detalhe: 9 registros</t>
   </si>
   <si>
@@ -376,6 +316,84 @@
   </si>
   <si>
     <t>N:\Migracao\Querys_Conferencia\Volumetria.sql</t>
+  </si>
+  <si>
+    <t>ods_car_titulo_abatimento</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.ln.ods_car_titulo_abatimento: 173 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.ln.ods_car_titulo_mvmto: 1460 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_ods.ln.ods_car_titulo_abatimento e mis_ods.ln.ods_car_titulo_mvmto: 173 registros</t>
+  </si>
+  <si>
+    <t>ln.rpt_titulo_car</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_relatorio.ln.rpt_titulo_car: 11864 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.ln.ods_car_titulo: 22564 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_relatorio.ln.rpt_titulo_car e mis_ods.ln.ods_car_titulo: 11.864 registros</t>
+  </si>
+  <si>
+    <t>Contas a Pagar Analítico</t>
+  </si>
+  <si>
+    <t>rpt_relatorio_cap_analitico</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Contas_Pagar_Analitico.sql</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_relatorio.dbo.rpt_relatorio_cap_analitico: 571 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.ln.ods_nfr_cab: 717 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_relatorio.dbo.rpt_relatorio_cap_analitico e mis_ods.ln.ods_nfr_cab: 571 registros</t>
+  </si>
+  <si>
+    <t>Estoque</t>
+  </si>
+  <si>
+    <t>ods_estoque_sige</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_estoque_sige: 16.617 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_estoque_sige: 16.620 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_estoque_sige e mis_dw.dbo.stg_estoque_sige: 16.555 registros</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Estoque_LN.sql</t>
+  </si>
+  <si>
+    <t>Devolução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ods_devolucao_nr </t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_devolucao_nr: 19 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_devolucao_nr: 21 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_devolucao_nr e mis_dw.dbo.stg_sige_devolucao_nr: 19 registros</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Devolucao_LN.sql</t>
   </si>
 </sst>
 </file>
@@ -424,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -463,6 +481,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +501,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -495,6 +516,20 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -558,20 +593,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -592,18 +613,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F66" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F81" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F81">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="Solução" dataDxfId="4"/>
-    <tableColumn id="6" name="Tabela Gerada" dataDxfId="3"/>
-    <tableColumn id="5" name="Data Consulta" dataDxfId="2"/>
-    <tableColumn id="2" name="Observação" dataDxfId="0"/>
+    <tableColumn id="1" name="Solução" dataDxfId="5"/>
+    <tableColumn id="6" name="Tabela Gerada" dataDxfId="4"/>
+    <tableColumn id="5" name="Data Consulta" dataDxfId="3"/>
+    <tableColumn id="2" name="Observação" dataDxfId="2"/>
     <tableColumn id="3" name="Servidor" dataDxfId="1"/>
-    <tableColumn id="4" name="Local Script" dataDxfId="5"/>
+    <tableColumn id="4" name="Local Script" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -894,11 +915,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15"/>
@@ -1102,13 +1123,13 @@
         <v>42110</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1122,13 +1143,13 @@
         <v>42110</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24">
@@ -1142,13 +1163,13 @@
         <v>42110</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1162,13 +1183,13 @@
         <v>42110</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1182,13 +1203,13 @@
         <v>42110</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24">
@@ -1202,13 +1223,13 @@
         <v>42110</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1251,7 +1272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="24">
       <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
@@ -1551,7 +1572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="24">
       <c r="A33" s="8" t="s">
         <v>24</v>
       </c>
@@ -1631,7 +1652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="24">
       <c r="A37" s="8" t="s">
         <v>50</v>
       </c>
@@ -2229,6 +2250,306 @@
       </c>
       <c r="F66" s="3" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="24">
+      <c r="A69" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="24">
+      <c r="A72" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="24">
+      <c r="A75" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="24">
+      <c r="A78" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="24">
+      <c r="A81" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="9">
+        <v>42111</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2253,608 +2574,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:T28"/>
+  <dimension ref="B3:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20">
-      <c r="B4" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12">
-        <v>5</v>
-      </c>
-      <c r="I4" s="12">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="J4" s="12">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L4" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M4" s="1">
-        <v>100000</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>1</v>
-      </c>
-      <c r="R4" s="12">
-        <v>5</v>
-      </c>
-      <c r="S4" s="12">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="T4" s="12">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20">
-      <c r="B5" s="1">
-        <v>100008</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100008</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.245</v>
-      </c>
-      <c r="J5" s="12">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="L5" s="1">
-        <v>100008</v>
-      </c>
-      <c r="M5" s="1">
-        <v>100008</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P5" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>1</v>
-      </c>
-      <c r="R5" s="12">
-        <v>1</v>
-      </c>
-      <c r="S5" s="12">
-        <v>0.245</v>
-      </c>
-      <c r="T5" s="12">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="1">
-        <v>100040</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100040</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0.245</v>
-      </c>
-      <c r="J6" s="12">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="L6" s="1">
-        <v>100040</v>
-      </c>
-      <c r="M6" s="1">
-        <v>100040</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>1</v>
-      </c>
-      <c r="R6" s="12">
-        <v>1</v>
-      </c>
-      <c r="S6" s="12">
-        <v>0.245</v>
-      </c>
-      <c r="T6" s="12">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20">
-      <c r="B7" s="1">
-        <v>112483</v>
-      </c>
-      <c r="C7" s="1">
-        <v>112483</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="12">
-        <v>3090</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1436.85</v>
-      </c>
-      <c r="J7" s="12">
-        <v>1.1948000000000001</v>
-      </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="2:20">
-      <c r="B8" s="1">
-        <v>118199</v>
-      </c>
-      <c r="C8" s="1">
-        <v>118199</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="12">
-        <v>200</v>
-      </c>
-      <c r="I8" s="12">
-        <v>212</v>
-      </c>
-      <c r="J8" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="1">
-        <v>167522</v>
-      </c>
-      <c r="C9" s="1">
-        <v>167522</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12">
-        <v>10</v>
-      </c>
-      <c r="I9" s="12">
-        <v>34</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0.11260000000000001</v>
-      </c>
-      <c r="L9" s="1">
-        <v>167522</v>
-      </c>
-      <c r="M9" s="1">
-        <v>167522</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>1</v>
-      </c>
-      <c r="R9" s="12">
-        <v>10</v>
-      </c>
-      <c r="S9" s="12">
-        <v>34</v>
-      </c>
-      <c r="T9" s="12">
-        <v>0.11260000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20">
-      <c r="B10" s="1">
-        <v>1586993</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1586993</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
-        <v>10</v>
-      </c>
-      <c r="I10" s="12">
-        <v>1.33</v>
-      </c>
-      <c r="J10" s="12">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1586993</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1586993</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>1</v>
-      </c>
-      <c r="R10" s="12">
-        <v>10</v>
-      </c>
-      <c r="S10" s="12">
-        <v>1.33</v>
-      </c>
-      <c r="T10" s="12">
-        <v>4.5400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20">
-      <c r="B11" s="1">
-        <v>1806090</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1806090</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12">
-        <v>3</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1.92</v>
-      </c>
-      <c r="J11" s="12">
-        <v>2.52E-2</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1806090</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1806090</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P11" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>1</v>
-      </c>
-      <c r="R11" s="12">
-        <v>3</v>
-      </c>
-      <c r="S11" s="12">
-        <v>1.92</v>
-      </c>
-      <c r="T11" s="12">
-        <v>2.52E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20">
-      <c r="B12" s="1">
-        <v>1948939</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1948939</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12">
-        <v>3</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="J12" s="12">
-        <v>1.8E-3</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1948939</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1948939</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P12" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>1</v>
-      </c>
-      <c r="R12" s="12">
-        <v>3</v>
-      </c>
-      <c r="S12" s="12">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="T12" s="12">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20">
-      <c r="B13" s="1">
-        <v>13424265</v>
-      </c>
-      <c r="C13" s="1">
-        <v>13424265</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12">
-        <v>2</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="J13" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="L13" s="1">
-        <v>13424265</v>
-      </c>
-      <c r="M13" s="1">
-        <v>13424265</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>1</v>
-      </c>
-      <c r="R13" s="12">
-        <v>2</v>
-      </c>
-      <c r="S13" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="T13" s="12">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="12:12">
-      <c r="L28" s="12"/>
+    <row r="3" spans="12:15">
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="12:15">
+      <c r="L4" s="14"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="12:15">
+      <c r="L5" s="14"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="12:15">
+      <c r="L6" s="14"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="12:15">
+      <c r="L7" s="14"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="12:15">
+      <c r="L8" s="14"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="12:15">
+      <c r="L9" s="14"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="12:15">
+      <c r="L10" s="14"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="12:15">
+      <c r="L11" s="14"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="12:15">
+      <c r="L12" s="14"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="12:15">
+      <c r="L13" s="14"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Querys_Conferencia/Querys_Conferencia.xlsx
+++ b/Querys_Conferencia/Querys_Conferencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="192">
   <si>
     <t>Solução</t>
   </si>
@@ -384,16 +384,214 @@
     <t xml:space="preserve">ods_devolucao_nr </t>
   </si>
   <si>
-    <t>Qtd registros na tabela mis_dw.dbo.ods_devolucao_nr: 19 registros</t>
-  </si>
-  <si>
-    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_devolucao_nr: 21 registros</t>
-  </si>
-  <si>
-    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_devolucao_nr e mis_dw.dbo.stg_sige_devolucao_nr: 19 registros</t>
-  </si>
-  <si>
     <t>N:\Migracao\Querys_Conferencia\Devolucao_LN.sql</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_devolucao_nr: 24 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_devolucao_nr: 28 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_devolucao_nr e mis_dw.dbo.stg_sige_devolucao_nr: 24 registros</t>
+  </si>
+  <si>
+    <t>ods_devolucao_cab</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_devolucao_cab: 32 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_devolucao_cab: 32 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_devolucao_cab e mis_dw.dbo.stg_sige_devolucao_cab: 32 registros</t>
+  </si>
+  <si>
+    <t>ods_devolucao_instancia</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_devolucao_instancia: 224 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_devolucao_instancia: 223 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_devolucao_instancia e mis_dw.dbo.stg_sige_devolucao_instancia: 223 registros</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>ods_sige_cmv_hist</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_sige_cmv_hist: 139.517 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_cmv_hist: 139.493 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_sige_cmv_hist e mis_dw.dbo.stg_sige_cmv_hist: 139.517 registros</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Purchase_Open.sql</t>
+  </si>
+  <si>
+    <t>ods_follow</t>
+  </si>
+  <si>
+    <t>Relatorio Follow</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_relatorio.dbo.ods_follow: 273 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_staging.com.stg_follow_compra: 273 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_relatorio.dbo.ods_follow e mis_staging.com.stg_follow_compra: 273 registros</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Relatorio_Follow.sql</t>
+  </si>
+  <si>
+    <t>Estoque Histórico</t>
+  </si>
+  <si>
+    <t>ods_estoque_historico</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_estoque_historico: 225.672 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_estoque_historico: 16.149 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_estoque_historico e mis_dw.dbo.stg_estoque_historico: 225.660 registros</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Estoque_Historico.sql</t>
+  </si>
+  <si>
+    <t>Adquirente</t>
+  </si>
+  <si>
+    <t>ods_dados_adquirente</t>
+  </si>
+  <si>
+    <t>ods_cartao_adquirente</t>
+  </si>
+  <si>
+    <t>está lendo diretamente do LN (Tabela baandb.tzncmg010301)</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.ln.ods_dados_adquirente: 10 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.ln.ods_cartao_adquirente: 2 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ln.dbo.stg_dom_adquirente: 3 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_ods.ln.ods_cartao_adquirente e mis_ln.dbo.stg_dom_adquirente: 2 registros</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Adquirente.sql</t>
+  </si>
+  <si>
+    <t>Rentabilidade</t>
+  </si>
+  <si>
+    <t>ods_orders_profitable</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_rentab.dbo.ods_orders_profitable: 60.518 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_rentab.dbo.tmp_orders_profitable: 1.221 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_rentab.dbo.ods_orders_profitable e mis_rentab.dbo.tmp_orders_profitable: 60.518 registro</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Rentabilidade.sql</t>
+  </si>
+  <si>
+    <t>Lista de Casamento</t>
+  </si>
+  <si>
+    <t>ods_lista_casamento_sige</t>
+  </si>
+  <si>
+    <t>ods_lista_casamento_loja</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_lista_casamento_sige: 349 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_lista_casamento: 118 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_lista_casamento_sige e mis_dw.dbo.stg_sige_lista_casamento: 118 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_lista_casamento_loja: 1.853.231 registros</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Lista_Casamento.sql</t>
+  </si>
+  <si>
+    <t>a leitura das tabelas de origem não retornam dados: mis_dw.dbo.stg_lista_de_compra, mis_dw.dbo.stg_lista_casamento, mis_dw.dbo.stg_lista_de_compra_item</t>
+  </si>
+  <si>
+    <t>ods_lista_casamento_produtos_comprados_com_vale</t>
+  </si>
+  <si>
+    <t>a leitura das tabelas de origem não retornam dados: mis_dw.dbo.ods_approved</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_lista_casamento_produtos_comprados_com_vale: 65 registros</t>
+  </si>
+  <si>
+    <t>ods_lista_casamento_loja_lista_invalida</t>
+  </si>
+  <si>
+    <t>a leitura das tabelas de origem não retornam dados: mis_dw.dbo.stg_lista_casamento, mis_dw.dbo.stg_lista_de_compra</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_lista_casamento_loja_lista_invalida: 4.473 registros</t>
+  </si>
+  <si>
+    <t>ods_rpt_lista_casamento</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.mkt.ods_rpt_lista_casamento: 82.151 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_staging.mkt.stg_rpt_lista_casamento: 82.130 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_ods.mkt.ods_rpt_lista_casamento e mis_staging.mkt.stg_rpt_lista_casamento: 82.104 registros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ods_sige_detalhe_pedido </t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Margin.sql</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_sige_detalhe_pedido: 14.162 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_detalhe_pedido: 25.587 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_sige_detalhe_pedido e mis_dw.dbo.stg_sige_detalhe_pedido: 14.112 registros</t>
   </si>
 </sst>
 </file>
@@ -442,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -483,6 +681,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,8 +814,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F81" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F119" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F119">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
@@ -915,20 +1116,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2500,16 +2701,16 @@
         <v>121</v>
       </c>
       <c r="C79" s="9">
-        <v>42111</v>
+        <v>42114</v>
       </c>
       <c r="D79" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2520,16 +2721,16 @@
         <v>121</v>
       </c>
       <c r="C80" s="9">
-        <v>42111</v>
+        <v>42114</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="24">
@@ -2540,16 +2741,776 @@
         <v>121</v>
       </c>
       <c r="C81" s="9">
-        <v>42111</v>
+        <v>42114</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="24">
+      <c r="A84" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="24">
+      <c r="A87" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="24">
+      <c r="A90" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="24">
+      <c r="A93" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C95" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="24">
+      <c r="A96" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="24">
+      <c r="A101" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="24">
+      <c r="A104" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="24">
+      <c r="A107" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="24">
+      <c r="A109" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="24">
+      <c r="A110" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C110" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C112" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="24">
+      <c r="A113" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C113" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C115" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="24">
+      <c r="A116" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C116" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C117" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C118" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="24">
+      <c r="A119" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C119" s="9">
+        <v>42114</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Querys_Conferencia/Querys_Conferencia.xlsx
+++ b/Querys_Conferencia/Querys_Conferencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="229">
   <si>
     <t>Solução</t>
   </si>
@@ -585,13 +585,124 @@
     <t>N:\Migracao\Querys_Conferencia\Margin.sql</t>
   </si>
   <si>
-    <t>Qtd registros na tabela mis_dw.dbo.ods_sige_detalhe_pedido: 14.162 registros</t>
-  </si>
-  <si>
-    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_detalhe_pedido: 25.587 registros</t>
-  </si>
-  <si>
-    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_sige_detalhe_pedido e mis_dw.dbo.stg_sige_detalhe_pedido: 14.112 registros</t>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_sige_detalhe_pedido: 14.245 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_detalhe_pedido: 25.967 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_sige_detalhe_pedido e mis_dw.dbo.stg_sige_detalhe_pedido: 14.190 registros</t>
+  </si>
+  <si>
+    <t>ods_sige_pagamento_pedido</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_sige_pagamento_pedido: 57.212 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_pagamento_pedido: 50.238 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_sige_pagamento_pedido e mis_dw.dbo.stg_sige_pagamento_pedido: 50.252 registros</t>
+  </si>
+  <si>
+    <t>ods_sige_faturamento_impostosB2B</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_sige_faturamento_impostosB2B: 261 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_faturamento_impostosB2B: 261 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_sige_faturamento_impostosB2B e mis_dw.dbo.stg_sige_faturamento_impostosB2B: 261 registros</t>
+  </si>
+  <si>
+    <t>ods_sige_faturamento</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_sige_faturamento: 1.820 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_sige_faturamento: 1.975 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_sige_faturamento e mis_dw.dbo.stg_sige_faturamento: 1.820 registros</t>
+  </si>
+  <si>
+    <t>ods_fatdev</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_sige_faturamento: 1.897 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_fatdev e mis_dw.dbo.ods_sige_faturamento: 1.857 registros</t>
+  </si>
+  <si>
+    <t>ods_approved</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_approved: 7.437 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_approved e mis_dw.dbo.ods_sige_detalhe_pedido: 7.437 registros</t>
+  </si>
+  <si>
+    <t>ods_relatorio_pedidos_aprovados</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_relatorio.dbo.ods_relatorio_pedidos_aprovados: 5.619 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_relatorio.dbo.ods_relatorio_pedidos_aprovados e mis_dw.dbo.ods_approved: 5.619 registros</t>
+  </si>
+  <si>
+    <t>fact_approved_mp</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.fact_approved_mp: 0 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_approved_mp: 0 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.fact_approved_mp e mis_dw.dbo.stg_approved_mp: 0 registros</t>
+  </si>
+  <si>
+    <t>Planilhão Atacado</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_relatorio.dbo.stg_tb_planilhao_atacado: 0 registros</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Planilhao_Atacado.sql</t>
+  </si>
+  <si>
+    <t>ods_tb_planilhao_atacado</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_relatorio.dbo.ods_tb_planilhao_atacado: 0 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_relatorio.dbo.ods_tb_planilhao_atacado e mis_relatorio.dbo.stg_tb_planilhao_atacado: 0 registros</t>
+  </si>
+  <si>
+    <t>ods_tb_planilhao</t>
+  </si>
+  <si>
+    <t>Planilhão</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Planilhao.sql</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_relatorio.dbo.ods_tb_planilhao: 558.551 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_relatorio.dbo.stg_tb_planilhao: 558.551 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_relatorio.dbo.ods_tb_planilhao e mis_relatorio.dbo.stg_tb_planilhao: 558.551 registros</t>
   </si>
 </sst>
 </file>
@@ -814,8 +925,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F119" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F146" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F146">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
@@ -1116,11 +1227,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15"/>
@@ -3461,7 +3572,7 @@
         <v>187</v>
       </c>
       <c r="C117" s="9">
-        <v>42114</v>
+        <v>42115</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>189</v>
@@ -3481,7 +3592,7 @@
         <v>187</v>
       </c>
       <c r="C118" s="9">
-        <v>42114</v>
+        <v>42115</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>190</v>
@@ -3501,7 +3612,7 @@
         <v>187</v>
       </c>
       <c r="C119" s="9">
-        <v>42114</v>
+        <v>42115</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>191</v>
@@ -3511,6 +3622,546 @@
       </c>
       <c r="F119" s="3" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C120" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C121" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="24">
+      <c r="A122" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C123" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C124" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="24">
+      <c r="A125" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C125" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C126" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C127" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="24">
+      <c r="A128" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C129" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="24">
+      <c r="A131" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C132" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C133" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="24">
+      <c r="A134" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C134" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C135" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C136" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="24">
+      <c r="A137" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C137" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C138" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C139" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="24">
+      <c r="A140" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C140" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C142" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="24">
+      <c r="A143" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C143" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C145" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="24">
+      <c r="A146" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C146" s="9">
+        <v>42115</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Querys_Conferencia/Querys_Conferencia.xlsx
+++ b/Querys_Conferencia/Querys_Conferencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="282">
   <si>
     <t>Solução</t>
   </si>
@@ -703,6 +703,165 @@
   </si>
   <si>
     <t>Qtd registros existentes em ambas tabelas mis_relatorio.dbo.ods_tb_planilhao e mis_relatorio.dbo.stg_tb_planilhao: 558.551 registros</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>ods_financiamento_estoque</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Inventory.sql</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_financiamento_estoque: 353 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.stg_financiamento_estoque: 353 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_financiamento_estoque e mis_dw.dbo.stg_financiamento_estoque: 353 registros</t>
+  </si>
+  <si>
+    <t>ods_sige_estoque_cmd</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_sige_estoque_cmd: 300 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.fact_financiamento_estoque: 353 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_financiamento_estoque e mis_dw.dbo.stg_financiamento_estoque: 300 registros</t>
+  </si>
+  <si>
+    <t>fact_financiamento_estoque</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.fact_financiamento_estoque e mis_dw.dbo.ods_financiamento_estoque: 353 registros</t>
+  </si>
+  <si>
+    <t>ods_financiamento_pedido_aberto</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_financiamento_pedido_aberto: 1.181 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_purchase: 5.642 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_financiamento_pedido_aberto e mis_dw.dbo.ods_purchase: 1.181 registros</t>
+  </si>
+  <si>
+    <t>Gestão ICMS</t>
+  </si>
+  <si>
+    <t>ods_devolucao_fornecedor</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.com.ods_devolucao_fornecedor: 291 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_staging.com.stg_sige_devolucao_fornecedor: 172 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_ods.com.ods_devolucao_fornecedor e mis_staging.com.stg_sige_devolucao_fornecedor: 154 registros</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Gestao_ICMS.sql</t>
+  </si>
+  <si>
+    <t>ods_gestao_icms</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.com.ods_gestao_icms: 91 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_staging.com.stg_gestao_icms: 49 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_ods.com.ods_devolucao_fornecedor e mis_staging.com.stg_sige_devolucao_fornecedor: 78 registros</t>
+  </si>
+  <si>
+    <t>ods_sige_historico_estoque</t>
+  </si>
+  <si>
+    <t>Abertura de Estoque</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Abertura_Estoque.sql</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_relatorio.dbo.ods_sige_historico_estoque: 398.080 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_relatorio.dbo.stg_sige_historico_estoque: 16.614 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_relatorio.dbo.ods_sige_historico_estoque e mis_relatorio.dbo.stg_sige_historico_estoque: 398.054 registros</t>
+  </si>
+  <si>
+    <t>ods_cmv_ponderado</t>
+  </si>
+  <si>
+    <t>CMV_Ponderado</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.ln.ods_cmv_ponderado: 131.369 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ln.dbo.stg_cmv_item_compra_nproduto: 103 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_ods.ln.ods_cmv_ponderado e mis_ln.dbo.stg_cmv_item_compra_nproduto: 103 registros</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\CMV_Ponderado.sql</t>
+  </si>
+  <si>
+    <t>ods_cmv_estoque</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.ln.ods_cmv_estoque: 16.337 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ln.dbo.stg_cmv_estoque: 16.337 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_ods.ln.ods_cmv_estoque e mis_ln.dbo.stg_cmv_estoque: 16.337 registros</t>
+  </si>
+  <si>
+    <t>CMV_Ponderado_Planilhao</t>
+  </si>
+  <si>
+    <t>ods_cmv_ponderado_planilhao</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\CMV_Ponderado_Planilhao.sql</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.ln.ods_cmv_ponderado_planilhao: 0 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.ln.ods_unid_emp_x_grupo_planilhao: 0 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_ods.ln.ods_cmv_ponderado_planilhao e mis_ods.ln.ods_cmv_estoque: 0 registros</t>
+  </si>
+  <si>
+    <t>ods_cmv_ultimo_pedido_compra</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.ln.ods_cmv_ultimo_pedido_compra: 859 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_ods.ln.ods_pec_det: 17.200 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_ods.ln.ods_cmv_ultimo_pedido_compra e mis_ods.ln.ods_pec_det: 859 registros</t>
+  </si>
+  <si>
+    <t>Parei no fluxo Pedidos</t>
   </si>
 </sst>
 </file>
@@ -751,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -795,6 +954,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,8 +1093,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F146" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F180" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F180">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
@@ -1227,21 +1395,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="80.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3572,7 +3740,7 @@
         <v>187</v>
       </c>
       <c r="C117" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>189</v>
@@ -3592,7 +3760,7 @@
         <v>187</v>
       </c>
       <c r="C118" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>190</v>
@@ -3612,7 +3780,7 @@
         <v>187</v>
       </c>
       <c r="C119" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>191</v>
@@ -3632,7 +3800,7 @@
         <v>192</v>
       </c>
       <c r="C120" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>193</v>
@@ -3652,7 +3820,7 @@
         <v>192</v>
       </c>
       <c r="C121" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>194</v>
@@ -3672,7 +3840,7 @@
         <v>192</v>
       </c>
       <c r="C122" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>195</v>
@@ -3692,7 +3860,7 @@
         <v>196</v>
       </c>
       <c r="C123" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>197</v>
@@ -3712,7 +3880,7 @@
         <v>196</v>
       </c>
       <c r="C124" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>198</v>
@@ -3732,7 +3900,7 @@
         <v>196</v>
       </c>
       <c r="C125" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>199</v>
@@ -3752,7 +3920,7 @@
         <v>200</v>
       </c>
       <c r="C126" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>201</v>
@@ -3772,7 +3940,7 @@
         <v>200</v>
       </c>
       <c r="C127" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>202</v>
@@ -3792,7 +3960,7 @@
         <v>200</v>
       </c>
       <c r="C128" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>203</v>
@@ -3812,7 +3980,7 @@
         <v>204</v>
       </c>
       <c r="C129" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>205</v>
@@ -3832,7 +4000,7 @@
         <v>204</v>
       </c>
       <c r="C130" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>201</v>
@@ -3852,7 +4020,7 @@
         <v>204</v>
       </c>
       <c r="C131" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>206</v>
@@ -3872,7 +4040,7 @@
         <v>207</v>
       </c>
       <c r="C132" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>208</v>
@@ -3892,7 +4060,7 @@
         <v>207</v>
       </c>
       <c r="C133" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>189</v>
@@ -3912,7 +4080,7 @@
         <v>207</v>
       </c>
       <c r="C134" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>209</v>
@@ -3932,7 +4100,7 @@
         <v>210</v>
       </c>
       <c r="C135" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>211</v>
@@ -3952,7 +4120,7 @@
         <v>210</v>
       </c>
       <c r="C136" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>208</v>
@@ -3972,7 +4140,7 @@
         <v>210</v>
       </c>
       <c r="C137" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>212</v>
@@ -3992,7 +4160,7 @@
         <v>213</v>
       </c>
       <c r="C138" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>214</v>
@@ -4012,7 +4180,7 @@
         <v>213</v>
       </c>
       <c r="C139" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>215</v>
@@ -4032,7 +4200,7 @@
         <v>213</v>
       </c>
       <c r="C140" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>216</v>
@@ -4052,7 +4220,7 @@
         <v>220</v>
       </c>
       <c r="C141" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>221</v>
@@ -4072,7 +4240,7 @@
         <v>220</v>
       </c>
       <c r="C142" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>218</v>
@@ -4092,7 +4260,7 @@
         <v>220</v>
       </c>
       <c r="C143" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>222</v>
@@ -4112,7 +4280,7 @@
         <v>223</v>
       </c>
       <c r="C144" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>226</v>
@@ -4132,7 +4300,7 @@
         <v>223</v>
       </c>
       <c r="C145" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>227</v>
@@ -4152,7 +4320,7 @@
         <v>223</v>
       </c>
       <c r="C146" s="9">
-        <v>42115</v>
+        <v>42116</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>228</v>
@@ -4163,6 +4331,676 @@
       <c r="F146" s="3" t="s">
         <v>225</v>
       </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C147" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C148" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="24">
+      <c r="A149" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C149" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C150" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C151" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="24">
+      <c r="A152" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C152" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C153" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C154" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="24">
+      <c r="A155" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C155" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C156" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C157" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="24">
+      <c r="A158" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C158" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C159" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C160" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="24">
+      <c r="A161" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C161" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C162" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C163" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="24">
+      <c r="A164" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C164" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C165" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C166" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="24">
+      <c r="A167" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C167" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C168" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C169" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="24">
+      <c r="A170" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C170" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C171" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C172" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="24">
+      <c r="A173" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C173" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E173" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B174" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C174" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E174" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C175" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E175" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="24">
+      <c r="A176" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B176" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C176" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E176" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C177" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E177" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C178" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E178" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="24">
+      <c r="A179" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C179" s="9">
+        <v>42117</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B180" s="8"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Querys_Conferencia/Querys_Conferencia.xlsx
+++ b/Querys_Conferencia/Querys_Conferencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="423">
   <si>
     <t>Solução</t>
   </si>
@@ -435,12 +435,6 @@
     <t>Lista de Casamento</t>
   </si>
   <si>
-    <t>ods_lista_casamento_sige</t>
-  </si>
-  <si>
-    <t>ods_lista_casamento_loja</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_dw.dbo.ods_lista_casamento_sige: 349 registros</t>
   </si>
   <si>
@@ -459,27 +453,18 @@
     <t>a leitura das tabelas de origem não retornam dados: mis_dw.dbo.stg_lista_de_compra, mis_dw.dbo.stg_lista_casamento, mis_dw.dbo.stg_lista_de_compra_item</t>
   </si>
   <si>
-    <t>ods_lista_casamento_produtos_comprados_com_vale</t>
-  </si>
-  <si>
     <t>a leitura das tabelas de origem não retornam dados: mis_dw.dbo.ods_approved</t>
   </si>
   <si>
     <t>Qtd registros na tabela mis_dw.dbo.ods_lista_casamento_produtos_comprados_com_vale: 65 registros</t>
   </si>
   <si>
-    <t>ods_lista_casamento_loja_lista_invalida</t>
-  </si>
-  <si>
     <t>a leitura das tabelas de origem não retornam dados: mis_dw.dbo.stg_lista_casamento, mis_dw.dbo.stg_lista_de_compra</t>
   </si>
   <si>
     <t>Qtd registros na tabela mis_dw.dbo.ods_lista_casamento_loja_lista_invalida: 4.473 registros</t>
   </si>
   <si>
-    <t>ods_rpt_lista_casamento</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_ods.mkt.ods_rpt_lista_casamento: 82.151 registros</t>
   </si>
   <si>
@@ -489,15 +474,6 @@
     <t>Qtd registros existentes em ambas tabelas mis_ods.mkt.ods_rpt_lista_casamento e mis_staging.mkt.stg_rpt_lista_casamento: 82.104 registros</t>
   </si>
   <si>
-    <t xml:space="preserve">Margin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ods_sige_detalhe_pedido </t>
-  </si>
-  <si>
-    <t>N:\Migracao\Querys_Conferencia\Margin.sql</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_dw.dbo.ods_sige_detalhe_pedido: 14.245 registros</t>
   </si>
   <si>
@@ -507,9 +483,6 @@
     <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_sige_detalhe_pedido e mis_dw.dbo.stg_sige_detalhe_pedido: 14.190 registros</t>
   </si>
   <si>
-    <t>ods_sige_pagamento_pedido</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_dw.dbo.ods_sige_pagamento_pedido: 57.212 registros</t>
   </si>
   <si>
@@ -519,9 +492,6 @@
     <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_sige_pagamento_pedido e mis_dw.dbo.stg_sige_pagamento_pedido: 50.252 registros</t>
   </si>
   <si>
-    <t>ods_sige_faturamento_impostosB2B</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_dw.dbo.ods_sige_faturamento_impostosB2B: 261 registros</t>
   </si>
   <si>
@@ -531,9 +501,6 @@
     <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_sige_faturamento_impostosB2B e mis_dw.dbo.stg_sige_faturamento_impostosB2B: 261 registros</t>
   </si>
   <si>
-    <t>ods_sige_faturamento</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_dw.dbo.ods_sige_faturamento: 1.820 registros</t>
   </si>
   <si>
@@ -543,36 +510,24 @@
     <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_sige_faturamento e mis_dw.dbo.stg_sige_faturamento: 1.820 registros</t>
   </si>
   <si>
-    <t>ods_fatdev</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_dw.dbo.ods_sige_faturamento: 1.897 registros</t>
   </si>
   <si>
     <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_fatdev e mis_dw.dbo.ods_sige_faturamento: 1.857 registros</t>
   </si>
   <si>
-    <t>ods_approved</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_dw.dbo.ods_approved: 7.437 registros</t>
   </si>
   <si>
     <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_approved e mis_dw.dbo.ods_sige_detalhe_pedido: 7.437 registros</t>
   </si>
   <si>
-    <t>ods_relatorio_pedidos_aprovados</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_relatorio.dbo.ods_relatorio_pedidos_aprovados: 5.619 registros</t>
   </si>
   <si>
     <t>Qtd registros existentes em ambas tabelas mis_relatorio.dbo.ods_relatorio_pedidos_aprovados e mis_dw.dbo.ods_approved: 5.619 registros</t>
   </si>
   <si>
-    <t>fact_approved_mp</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_dw.dbo.fact_approved_mp: 0 registros</t>
   </si>
   <si>
@@ -582,30 +537,18 @@
     <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.fact_approved_mp e mis_dw.dbo.stg_approved_mp: 0 registros</t>
   </si>
   <si>
-    <t>Planilhão Atacado</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_relatorio.dbo.stg_tb_planilhao_atacado: 0 registros</t>
   </si>
   <si>
     <t>N:\Migracao\Querys_Conferencia\Planilhao_Atacado.sql</t>
   </si>
   <si>
-    <t>ods_tb_planilhao_atacado</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_relatorio.dbo.ods_tb_planilhao_atacado: 0 registros</t>
   </si>
   <si>
     <t>Qtd registros existentes em ambas tabelas mis_relatorio.dbo.ods_tb_planilhao_atacado e mis_relatorio.dbo.stg_tb_planilhao_atacado: 0 registros</t>
   </si>
   <si>
-    <t>ods_tb_planilhao</t>
-  </si>
-  <si>
-    <t>Planilhão</t>
-  </si>
-  <si>
     <t>N:\Migracao\Querys_Conferencia\Planilhao.sql</t>
   </si>
   <si>
@@ -618,12 +561,6 @@
     <t>Qtd registros existentes em ambas tabelas mis_relatorio.dbo.ods_tb_planilhao e mis_relatorio.dbo.stg_tb_planilhao: 558.551 registros</t>
   </si>
   <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>ods_financiamento_estoque</t>
-  </si>
-  <si>
     <t>N:\Migracao\Querys_Conferencia\Inventory.sql</t>
   </si>
   <si>
@@ -636,9 +573,6 @@
     <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_financiamento_estoque e mis_dw.dbo.stg_financiamento_estoque: 353 registros</t>
   </si>
   <si>
-    <t>ods_sige_estoque_cmd</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_dw.dbo.ods_sige_estoque_cmd: 300 registros</t>
   </si>
   <si>
@@ -648,15 +582,9 @@
     <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_financiamento_estoque e mis_dw.dbo.stg_financiamento_estoque: 300 registros</t>
   </si>
   <si>
-    <t>fact_financiamento_estoque</t>
-  </si>
-  <si>
     <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.fact_financiamento_estoque e mis_dw.dbo.ods_financiamento_estoque: 353 registros</t>
   </si>
   <si>
-    <t>ods_financiamento_pedido_aberto</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_dw.dbo.ods_financiamento_pedido_aberto: 1.181 registros</t>
   </si>
   <si>
@@ -795,21 +723,12 @@
     <t>Qtd registros existentes em ambas tabelas mis_ods.mkt.ods_pedidos_catalogo_eletronico e mis_staging.mkt.stg_pedidos_catalogo_eletronico: 0 registros</t>
   </si>
   <si>
-    <t>Pontualidade</t>
-  </si>
-  <si>
-    <t>ods_pontualidade_detalhe</t>
-  </si>
-  <si>
     <t>Qtd registros na tabela mis_ods.log.ods_pontualidade_detalhe: 0 registros</t>
   </si>
   <si>
     <t>Qtd registros na tabela mis_staging.log.stg_pontualidade_pedido: 18 registros</t>
   </si>
   <si>
-    <t>ods_pontualidade</t>
-  </si>
-  <si>
     <t>As tabelas mis_staging.log.aux_pontualidade_calculada e mis_staging.log.aux_tracking_pedido_pedidos_unicos_atualizados estão zeradas</t>
   </si>
   <si>
@@ -1195,6 +1114,177 @@
   </si>
   <si>
     <t>mis_ods.com.ods_gestao_icms</t>
+  </si>
+  <si>
+    <t>stg_inventory.dtsx</t>
+  </si>
+  <si>
+    <t>A tarefa "(DFT) stg_sige_fornecedor" do dtsx "stg_inventory.dtsx" está desabilitada</t>
+  </si>
+  <si>
+    <t>ods_inventory.dtsx</t>
+  </si>
+  <si>
+    <t>No container "(SC) Carga ODS", a tarefa "(DFT) ods_sige_fornecedor" está desabilitada. No container "(SC) Transacao", as tarefas "(DFT) Abatimento DA e VPC", "(DFT) Pagamento Normal", "(DFT) Pagamento por Baixa Especial" e "(DFT) Pagamento Agrupado pela transação de pagamento" estão desabilitadas. Os containers estão no dtsx "ods_inventory.dtsx".</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.ods_financiamento_estoque</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.ods_sige_estoque_cmd</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.fact_financiamento_estoque</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.ods_financiamento_pedido_aberto</t>
+  </si>
+  <si>
+    <t>Filipe</t>
+  </si>
+  <si>
+    <t>staging lista casamento loja.dtsx</t>
+  </si>
+  <si>
+    <t>ssis_controlador_lista_casamento.dtsx</t>
+  </si>
+  <si>
+    <t>No dtsx "staging lista casamento loja.dtsx", as tarefas "(SQL) Limpa tabelas staging", "(SQL) Seta data de corte" e "Script Task" estão desabilitadas</t>
+  </si>
+  <si>
+    <t>No dtsx "ssis_controlador_lista_casamento.dtsx", as tarefas "(EPT) Lista CB", "(EPT) Lista PF", "(EPT) Auditoria Item" e "(EPT) OLAP Lista" estão desabilitadas</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.ods_lista_casamento_sige</t>
+  </si>
+  <si>
+    <t>mis_dw_dbo.ods_lista_casamento_loja</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.ods_lista_casamento_produtos_comprados_com_vale</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.ods_lista_casamento_loja_lista_invalida</t>
+  </si>
+  <si>
+    <t>mis_ods.mkt.ods_rpt_lista_casamento</t>
+  </si>
+  <si>
+    <t>stg_margin_approved.dtsx</t>
+  </si>
+  <si>
+    <t>No dtsx "stg_margin_approved.dtsx", o container "(SC) Equalização de dados" está com as tarefas "(SQL) Corrige clientes da devolução", "(SQL) Canais de venda com vendedor nulo" e " (SQL) Insere Banco" desabilitadas</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.ods_sige_pagamento_pedido</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.ods_sige_faturamento_impostosB2B</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.ods_sige_faturamento</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.ods_fatdev</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.ods_approved</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.ods_meio_pagamento_orders</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_meio_pagamento_orders: 57.310 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros na tabela mis_dw.dbo.ods_sige_pagamento_pedido: 57.319 registros</t>
+  </si>
+  <si>
+    <t>Qtd registros existentes em ambas tabelas mis_dw.dbo.ods_meio_pagamento_orders e mis_dw.dbo.ods_sige_pagamento_pedido: 57.310 registros</t>
+  </si>
+  <si>
+    <t>Margin Approved LN</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Margin_Approved.sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mis_dw.dbo.ods_sige_detalhe_pedido </t>
+  </si>
+  <si>
+    <t>ods_margin_approved.dtsx</t>
+  </si>
+  <si>
+    <t>No dtsx "ods_margin_approved.dtsx", o container "(SC) Ods SIGE Permanente" está com a tarefa "(DFT) Exclui pedidos com filial 1 que integraram no LN" desabilitada. O container "(SC) Rateio do faturamento e devolução" está com as tarefas "(DFT) Rateio Pagto Devolucao" e "(DFT) Rateio Pagto Devolucao" desabilitadas. No container "(SC) Load Dimensions", as tarefas "(DFT) ODS Tipo de Cliente" e " (SQL) Atualiza Afiliado" estão desabilitadas.</t>
+  </si>
+  <si>
+    <t>dw_margin_approved.dtsx</t>
+  </si>
+  <si>
+    <t>No dtsx "dw_margin_approved.dtsx",  a tarefa "(SQL) Limpa tabela auxiliar" está desabilitada. O container "(SC) Processa dimensões" está com as tarefas "(DFT) Dim Cliente" e "(DFT) Dim Produto" desabilitadas. No container "(SC) De para auxiliares (comuns)" as tarefas "(DFT) Clientes" e "(SQL) Detalhe do pedido" estão desabilitadas. Nos containers "(SC) Carrega Fatos Margin" e "(SC) Carrega Fatos Approved", somente as tarefas de 2015 estão habilitadas</t>
+  </si>
+  <si>
+    <t>mis_relatorio.dbo.ods_relatorio_pedidos_aprovados</t>
+  </si>
+  <si>
+    <t>stg_carga_margem_presumida.dtsx</t>
+  </si>
+  <si>
+    <t>No dtsx "stg_carga_margem_presumida.dtsx", o container "(SC) Imposto" está com a tarefa "(DFT) CMV" desabilitada</t>
+  </si>
+  <si>
+    <t>stg_carga_margem_presumida_app.dtsx</t>
+  </si>
+  <si>
+    <t>No dtsx "stg_carga_margem_presumida_app.dtsx", o container "(SC) Imposto e CMV" está com as tarefas "(DFT) CMV", "(DFT) Trata itens sem Fat Nivel 1", "(DFT) Trata itens sem Fat Nivel 2" e "(DFT) Trata itens sem Fat Nivel 3" estão desabilitadas</t>
+  </si>
+  <si>
+    <t>mis_dw.dbo.fact_approved_mp</t>
+  </si>
+  <si>
+    <t>ssis_controlador_margin_approved.dtsx</t>
+  </si>
+  <si>
+    <t>No dtsx "ssis_controlador_margin_approved.dtsx", as tarefas "(EPT) ODS Parceiro B2B", "(EPT) Stage Parceiro B2B" e "(EPT) OLAP Margin" estão desabilitadas</t>
+  </si>
+  <si>
+    <t>mis_relatorio.dbo.ods_tb_planilhao</t>
+  </si>
+  <si>
+    <t>Planilhão LN</t>
+  </si>
+  <si>
+    <t>stg_planilhao_atacado.dtsx</t>
+  </si>
+  <si>
+    <t>No dtsx "stg_planilhao_atacado.dtsx", as tarefas "(DFT) Carga Dados CMV e Aliquota - Pendente Verificar no LN" e "(DFT) Staging Planilhão" estão desabilitadas</t>
+  </si>
+  <si>
+    <t>mis_relatorio.dbo.ods_tb_planilhao_atacado</t>
+  </si>
+  <si>
+    <t>Pontualidade_LN</t>
+  </si>
+  <si>
+    <t>mis_ods.log.ods_pontualidade_detalhe</t>
+  </si>
+  <si>
+    <t>mis_ods.log.ods_pontualidade</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Querys_Conferencia\Pontualidade.sql</t>
+  </si>
+  <si>
+    <t>ods_logistica_pontualidade.dtsx</t>
+  </si>
+  <si>
+    <t>No dtsx "ods_logistica_pontualidade.dtsx", o container "(SC) ODS Pontualidade - Detalhe" tem a tarefa "(SQL) ODS Detalhe Pontualidade - Limpa Aux Pivot" desabilitada.</t>
+  </si>
+  <si>
+    <t>ssis_controlador_pontualidade.dtsx</t>
+  </si>
+  <si>
+    <t>No dtsx "ssis_controlador_pontualidade.dtsx", a tarefa "(EPT) OLAP" está desabilitada.</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1240,12 +1330,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,7 +1346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1313,9 +1397,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1337,23 +1418,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1389,20 +1478,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1528,8 +1603,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:I245" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I245">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:I261" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I261">
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
@@ -1544,9 +1619,9 @@
     <tableColumn id="2" name="Observação" dataDxfId="5"/>
     <tableColumn id="3" name="Servidor" dataDxfId="4"/>
     <tableColumn id="4" name="Local Script" dataDxfId="3"/>
-    <tableColumn id="9" name="Encaminhado para:" dataDxfId="1"/>
-    <tableColumn id="10" name="Nr. Chamado" dataDxfId="0"/>
-    <tableColumn id="7" name="Revisão" dataDxfId="2"/>
+    <tableColumn id="9" name="Encaminhado para:" dataDxfId="2"/>
+    <tableColumn id="10" name="Nr. Chamado" dataDxfId="1"/>
+    <tableColumn id="7" name="Revisão" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1837,19 +1912,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I245"/>
+  <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B141" sqref="B141"/>
+      <selection pane="bottomRight" activeCell="J214" sqref="J214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
@@ -1879,603 +1954,603 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
-        <v>225</v>
+      <c r="A2" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C2" s="9">
         <v>42117</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="20" t="s">
-        <v>295</v>
+      <c r="I2" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="21" t="s">
-        <v>225</v>
+      <c r="A3" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C3" s="9">
         <v>42117</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="20" t="s">
-        <v>295</v>
+      <c r="I3" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24">
-      <c r="A4" s="21" t="s">
-        <v>225</v>
+      <c r="A4" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C4" s="9">
         <v>42117</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="20" t="s">
-        <v>295</v>
+      <c r="I4" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>316</v>
+        <v>259</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>289</v>
       </c>
       <c r="C5" s="9">
         <v>42118</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H5" s="2">
         <v>380</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>295</v>
+      <c r="I5" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>316</v>
+        <v>259</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>289</v>
       </c>
       <c r="C6" s="9">
         <v>42118</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H6" s="2">
         <v>380</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>295</v>
+      <c r="I6" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24">
       <c r="A7" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>316</v>
+        <v>259</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>289</v>
       </c>
       <c r="C7" s="9">
         <v>42118</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H7" s="2">
         <v>380</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>295</v>
+      <c r="I7" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>316</v>
+        <v>259</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>289</v>
       </c>
       <c r="C8" s="9">
         <v>42118</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H8" s="2">
         <v>380</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>295</v>
+      <c r="I8" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>317</v>
+        <v>259</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>290</v>
       </c>
       <c r="C9" s="9">
         <v>42118</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H9" s="2">
         <v>380</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>295</v>
+      <c r="I9" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>317</v>
+        <v>259</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>290</v>
       </c>
       <c r="C10" s="9">
         <v>42118</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H10" s="2">
         <v>380</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>295</v>
+      <c r="I10" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>318</v>
+        <v>259</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>291</v>
       </c>
       <c r="C11" s="9">
         <v>42118</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H11" s="2">
         <v>380</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>295</v>
+      <c r="I11" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>318</v>
+        <v>259</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>291</v>
       </c>
       <c r="C12" s="9">
         <v>42118</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H12" s="2">
         <v>380</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>295</v>
+      <c r="I12" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>319</v>
+        <v>259</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="C13" s="9">
         <v>42118</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H13" s="2">
         <v>383</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>295</v>
+      <c r="I13" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>319</v>
+        <v>259</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="C14" s="9">
         <v>42118</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H14" s="2">
         <v>383</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>295</v>
+      <c r="I14" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="21" t="s">
-        <v>280</v>
+      <c r="A15" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="C15" s="9">
         <v>42118</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="20" t="s">
-        <v>295</v>
+      <c r="I15" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="21" t="s">
-        <v>280</v>
+      <c r="A16" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="C16" s="9">
         <v>42118</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="20" t="s">
-        <v>295</v>
+      <c r="I16" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="36">
-      <c r="A17" s="21" t="s">
-        <v>280</v>
+      <c r="A17" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="C17" s="9">
         <v>42118</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="20" t="s">
-        <v>295</v>
+      <c r="I17" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="21" t="s">
-        <v>280</v>
+      <c r="A18" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="C18" s="9">
         <v>42118</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="20" t="s">
-        <v>295</v>
+      <c r="I18" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="21" t="s">
-        <v>280</v>
+      <c r="A19" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="C19" s="9">
         <v>42118</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="20" t="s">
-        <v>295</v>
+      <c r="I19" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="21" t="s">
-        <v>280</v>
+      <c r="A20" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="C20" s="9">
         <v>42118</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="20" t="s">
-        <v>295</v>
+      <c r="I20" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="24">
-      <c r="A21" s="21" t="s">
-        <v>280</v>
+      <c r="A21" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="C21" s="9">
         <v>42118</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="20" t="s">
-        <v>295</v>
+      <c r="I21" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="21" t="s">
-        <v>280</v>
+      <c r="A22" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="C22" s="9">
         <v>42118</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="20" t="s">
-        <v>295</v>
+      <c r="I22" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24">
-      <c r="A23" s="21" t="s">
-        <v>280</v>
+      <c r="A23" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="C23" s="9">
         <v>42118</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="20" t="s">
-        <v>295</v>
+      <c r="I23" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2483,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C24" s="7">
         <v>42107</v>
@@ -2498,13 +2573,13 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H24" s="2">
         <v>381</v>
       </c>
-      <c r="I24" s="20" t="s">
-        <v>295</v>
+      <c r="I24" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2512,7 +2587,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C25" s="7">
         <v>42107</v>
@@ -2527,13 +2602,13 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H25" s="2">
         <v>381</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>295</v>
+      <c r="I25" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="24">
@@ -2541,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C26" s="7">
         <v>42107</v>
@@ -2556,13 +2631,13 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H26" s="2">
         <v>381</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>295</v>
+      <c r="I26" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="24">
@@ -2570,7 +2645,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C27" s="7">
         <v>42107</v>
@@ -2585,13 +2660,13 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H27" s="2">
         <v>381</v>
       </c>
-      <c r="I27" s="20" t="s">
-        <v>295</v>
+      <c r="I27" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2599,13 +2674,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="C28" s="7">
         <v>42107</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
@@ -2614,752 +2689,752 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H28" s="2">
         <v>381</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>295</v>
+      <c r="I28" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>325</v>
+        <v>231</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="C29" s="9">
         <v>42118</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H29" s="2">
         <v>382</v>
       </c>
-      <c r="I29" s="20" t="s">
-        <v>295</v>
+      <c r="I29" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>325</v>
+        <v>231</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="C30" s="9">
         <v>42118</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H30" s="2">
         <v>382</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>295</v>
+      <c r="I30" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="24">
       <c r="A31" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>325</v>
+        <v>231</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="C31" s="9">
         <v>42118</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H31" s="2">
         <v>382</v>
       </c>
-      <c r="I31" s="20" t="s">
-        <v>295</v>
+      <c r="I31" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="24">
       <c r="A32" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>325</v>
+        <v>231</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="C32" s="9">
         <v>42118</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H32" s="2">
         <v>382</v>
       </c>
-      <c r="I32" s="20" t="s">
-        <v>295</v>
+      <c r="I32" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>328</v>
+        <v>282</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="C33" s="9">
         <v>42117</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H33" s="2">
         <v>384</v>
       </c>
-      <c r="I33" s="20" t="s">
-        <v>295</v>
+      <c r="I33" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>328</v>
+        <v>282</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="C34" s="9">
         <v>42117</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H34" s="2">
         <v>384</v>
       </c>
-      <c r="I34" s="20" t="s">
-        <v>295</v>
+      <c r="I34" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="24">
       <c r="A35" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>328</v>
+        <v>282</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="C35" s="9">
         <v>42117</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H35" s="2">
         <v>384</v>
       </c>
-      <c r="I35" s="20" t="s">
-        <v>295</v>
+      <c r="I35" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>328</v>
+        <v>282</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="C36" s="9">
         <v>42117</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H36" s="2">
         <v>384</v>
       </c>
-      <c r="I36" s="20" t="s">
-        <v>295</v>
+      <c r="I36" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>328</v>
+        <v>282</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="C37" s="9">
         <v>42117</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H37" s="2">
         <v>384</v>
       </c>
-      <c r="I37" s="20" t="s">
-        <v>295</v>
+      <c r="I37" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="24">
       <c r="A38" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>328</v>
+        <v>282</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="C38" s="9">
         <v>42117</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H38" s="2">
         <v>384</v>
       </c>
-      <c r="I38" s="20" t="s">
-        <v>295</v>
+      <c r="I38" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>328</v>
+        <v>282</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="C39" s="9">
         <v>42117</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H39" s="2">
         <v>384</v>
       </c>
-      <c r="I39" s="20" t="s">
-        <v>295</v>
+      <c r="I39" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="8" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C40" s="9">
         <v>42117</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H40" s="2">
         <v>385</v>
       </c>
-      <c r="I40" s="20" t="s">
-        <v>295</v>
+      <c r="I40" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="8" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C41" s="9">
         <v>42117</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H41" s="2">
         <v>385</v>
       </c>
-      <c r="I41" s="20" t="s">
-        <v>295</v>
+      <c r="I41" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="24">
       <c r="A42" s="8" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C42" s="9">
         <v>42117</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H42" s="2">
         <v>385</v>
       </c>
-      <c r="I42" s="20" t="s">
-        <v>295</v>
+      <c r="I42" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>330</v>
+        <v>282</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>303</v>
       </c>
       <c r="C43" s="9">
         <v>42117</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H43" s="2">
         <v>385</v>
       </c>
-      <c r="I43" s="20" t="s">
-        <v>295</v>
+      <c r="I43" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>330</v>
+        <v>282</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>303</v>
       </c>
       <c r="C44" s="9">
         <v>42117</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H44" s="2">
         <v>385</v>
       </c>
-      <c r="I44" s="20" t="s">
-        <v>295</v>
+      <c r="I44" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="24">
       <c r="A45" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>330</v>
+        <v>282</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>303</v>
       </c>
       <c r="C45" s="9">
         <v>42117</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H45" s="2">
         <v>385</v>
       </c>
-      <c r="I45" s="20" t="s">
-        <v>295</v>
+      <c r="I45" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>331</v>
+        <v>241</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="C46" s="9">
         <v>42118</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H46" s="19">
         <v>386</v>
       </c>
-      <c r="I46" s="20" t="s">
-        <v>295</v>
+      <c r="I46" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>331</v>
+        <v>241</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="C47" s="9">
         <v>42118</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H47" s="19">
         <v>386</v>
       </c>
-      <c r="I47" s="20" t="s">
-        <v>295</v>
+      <c r="I47" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="24">
       <c r="A48" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>331</v>
+        <v>241</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="C48" s="9">
         <v>42118</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H48" s="19">
         <v>386</v>
       </c>
-      <c r="I48" s="20" t="s">
-        <v>295</v>
+      <c r="I48" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>331</v>
+        <v>241</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="C49" s="9">
         <v>42118</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H49" s="19">
         <v>386</v>
       </c>
-      <c r="I49" s="20" t="s">
-        <v>295</v>
+      <c r="I49" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>332</v>
+        <v>241</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="C50" s="9">
         <v>42118</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H50" s="19">
         <v>386</v>
       </c>
-      <c r="I50" s="20" t="s">
-        <v>295</v>
+      <c r="I50" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>332</v>
+        <v>241</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="C51" s="9">
         <v>42118</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H51" s="19">
         <v>386</v>
       </c>
-      <c r="I51" s="20" t="s">
-        <v>295</v>
+      <c r="I51" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="24">
       <c r="A52" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>332</v>
+        <v>241</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="C52" s="9">
         <v>42118</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H52" s="19">
         <v>386</v>
       </c>
-      <c r="I52" s="20" t="s">
-        <v>295</v>
+      <c r="I52" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24">
       <c r="A53" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>332</v>
+        <v>241</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="C53" s="9">
         <v>42118</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="H53" s="19">
         <v>386</v>
       </c>
-      <c r="I53" s="20" t="s">
-        <v>295</v>
+      <c r="I53" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="24">
-      <c r="A54" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>338</v>
+      <c r="A54" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>311</v>
       </c>
       <c r="C54" s="9">
         <v>42109</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>9</v>
@@ -3368,44 +3443,44 @@
         <v>57</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H54" s="2">
         <v>387</v>
       </c>
-      <c r="I54" s="20" t="s">
-        <v>295</v>
+      <c r="I54" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="24">
-      <c r="A55" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>337</v>
+      <c r="A55" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="C55" s="9">
         <v>42109</v>
       </c>
-      <c r="D55" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="27"/>
+      <c r="D55" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
       <c r="G55" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H55" s="2">
         <v>387</v>
       </c>
-      <c r="I55" s="28"/>
+      <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>333</v>
+      <c r="A56" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="C56" s="9">
         <v>42109</v>
@@ -3420,21 +3495,21 @@
         <v>57</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H56" s="2">
         <v>387</v>
       </c>
-      <c r="I56" s="20" t="s">
-        <v>295</v>
+      <c r="I56" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>333</v>
+      <c r="A57" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="C57" s="9">
         <v>42109</v>
@@ -3449,21 +3524,21 @@
         <v>57</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H57" s="2">
         <v>387</v>
       </c>
-      <c r="I57" s="20" t="s">
-        <v>295</v>
+      <c r="I57" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="24">
-      <c r="A58" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>333</v>
+      <c r="A58" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="C58" s="9">
         <v>42109</v>
@@ -3478,21 +3553,21 @@
         <v>57</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H58" s="2">
         <v>387</v>
       </c>
-      <c r="I58" s="20" t="s">
-        <v>295</v>
+      <c r="I58" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="24">
-      <c r="A59" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>333</v>
+      <c r="A59" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="C59" s="9">
         <v>42109</v>
@@ -3507,13 +3582,13 @@
         <v>57</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H59" s="2">
         <v>387</v>
       </c>
-      <c r="I59" s="20" t="s">
-        <v>295</v>
+      <c r="I59" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3525,16 +3600,16 @@
       <c r="F60" s="18"/>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="20" t="s">
-        <v>295</v>
+      <c r="I60" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>334</v>
+      <c r="A61" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>307</v>
       </c>
       <c r="C61" s="9">
         <v>42109</v>
@@ -3549,21 +3624,21 @@
         <v>57</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H61" s="2">
         <v>387</v>
       </c>
-      <c r="I61" s="20" t="s">
-        <v>295</v>
+      <c r="I61" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>334</v>
+      <c r="A62" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>307</v>
       </c>
       <c r="C62" s="9">
         <v>42109</v>
@@ -3578,21 +3653,21 @@
         <v>57</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H62" s="2">
         <v>387</v>
       </c>
-      <c r="I62" s="20" t="s">
-        <v>295</v>
+      <c r="I62" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>335</v>
+      <c r="A63" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>308</v>
       </c>
       <c r="C63" s="9">
         <v>42109</v>
@@ -3607,21 +3682,21 @@
         <v>57</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H63" s="2">
         <v>387</v>
       </c>
-      <c r="I63" s="20" t="s">
-        <v>295</v>
+      <c r="I63" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>335</v>
+      <c r="A64" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>308</v>
       </c>
       <c r="C64" s="9">
         <v>42109</v>
@@ -3636,21 +3711,21 @@
         <v>57</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H64" s="2">
         <v>387</v>
       </c>
-      <c r="I64" s="20" t="s">
-        <v>295</v>
+      <c r="I64" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="24">
-      <c r="A65" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>335</v>
+      <c r="A65" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>308</v>
       </c>
       <c r="C65" s="9">
         <v>42109</v>
@@ -3665,21 +3740,21 @@
         <v>57</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H65" s="2">
         <v>387</v>
       </c>
-      <c r="I65" s="20" t="s">
-        <v>295</v>
+      <c r="I65" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>336</v>
+      <c r="A66" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>309</v>
       </c>
       <c r="C66" s="9">
         <v>42110</v>
@@ -3691,24 +3766,24 @@
         <v>9</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H66" s="2">
         <v>388</v>
       </c>
-      <c r="I66" s="20" t="s">
-        <v>295</v>
+      <c r="I66" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>336</v>
+      <c r="A67" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>309</v>
       </c>
       <c r="C67" s="9">
         <v>42110</v>
@@ -3720,24 +3795,24 @@
         <v>9</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H67" s="2">
         <v>388</v>
       </c>
-      <c r="I67" s="20" t="s">
-        <v>295</v>
+      <c r="I67" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="24">
-      <c r="A68" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>336</v>
+      <c r="A68" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>309</v>
       </c>
       <c r="C68" s="9">
         <v>42110</v>
@@ -3749,53 +3824,53 @@
         <v>9</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H68" s="2">
         <v>388</v>
       </c>
-      <c r="I68" s="20" t="s">
-        <v>295</v>
+      <c r="I68" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="24">
-      <c r="A69" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>342</v>
+      <c r="A69" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="C69" s="9">
         <v>42110</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H69" s="2">
         <v>388</v>
       </c>
-      <c r="I69" s="20" t="s">
-        <v>295</v>
+      <c r="I69" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>341</v>
+      <c r="A70" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="C70" s="9">
         <v>42110</v>
@@ -3807,24 +3882,24 @@
         <v>9</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H70" s="2">
         <v>388</v>
       </c>
-      <c r="I70" s="20" t="s">
-        <v>295</v>
+      <c r="I70" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>341</v>
+      <c r="A71" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="C71" s="9">
         <v>42110</v>
@@ -3836,24 +3911,24 @@
         <v>9</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H71" s="2">
         <v>388</v>
       </c>
-      <c r="I71" s="20" t="s">
-        <v>295</v>
+      <c r="I71" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="24">
-      <c r="A72" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>341</v>
+      <c r="A72" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="C72" s="9">
         <v>42110</v>
@@ -3865,24 +3940,24 @@
         <v>9</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H72" s="2">
         <v>388</v>
       </c>
-      <c r="I72" s="20" t="s">
-        <v>295</v>
+      <c r="I72" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>344</v>
+      <c r="A73" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="C73" s="9">
         <v>42110</v>
@@ -3894,24 +3969,24 @@
         <v>9</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H73" s="2">
         <v>388</v>
       </c>
-      <c r="I73" s="20" t="s">
-        <v>295</v>
+      <c r="I73" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>344</v>
+      <c r="A74" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="C74" s="9">
         <v>42110</v>
@@ -3923,24 +3998,24 @@
         <v>9</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H74" s="2">
         <v>388</v>
       </c>
-      <c r="I74" s="20" t="s">
-        <v>295</v>
+      <c r="I74" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="36">
-      <c r="A75" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>344</v>
+      <c r="A75" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="C75" s="9">
         <v>42110</v>
@@ -3952,24 +4027,24 @@
         <v>9</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H75" s="2">
         <v>388</v>
       </c>
-      <c r="I75" s="20" t="s">
-        <v>295</v>
+      <c r="I75" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>345</v>
+      <c r="A76" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="C76" s="9">
         <v>42110</v>
@@ -3981,24 +4056,24 @@
         <v>9</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H76" s="2">
         <v>388</v>
       </c>
-      <c r="I76" s="20" t="s">
-        <v>295</v>
+      <c r="I76" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>345</v>
+      <c r="A77" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="C77" s="9">
         <v>42110</v>
@@ -4010,24 +4085,24 @@
         <v>9</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H77" s="2">
         <v>388</v>
       </c>
-      <c r="I77" s="20" t="s">
-        <v>295</v>
+      <c r="I77" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>345</v>
+      <c r="A78" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="C78" s="9">
         <v>42110</v>
@@ -4039,24 +4114,24 @@
         <v>9</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H78" s="2">
         <v>388</v>
       </c>
-      <c r="I78" s="20" t="s">
-        <v>295</v>
+      <c r="I78" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="36">
-      <c r="A79" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>345</v>
+      <c r="A79" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="C79" s="9">
         <v>42110</v>
@@ -4068,24 +4143,24 @@
         <v>9</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H79" s="2">
         <v>388</v>
       </c>
-      <c r="I79" s="20" t="s">
-        <v>295</v>
+      <c r="I79" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>346</v>
+        <v>288</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="C80" s="9">
         <v>42111</v>
@@ -4100,21 +4175,21 @@
         <v>89</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H80" s="2">
         <v>389</v>
       </c>
-      <c r="I80" s="20" t="s">
-        <v>295</v>
+      <c r="I80" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>346</v>
+        <v>288</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="C81" s="9">
         <v>42111</v>
@@ -4129,21 +4204,21 @@
         <v>89</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H81" s="2">
         <v>389</v>
       </c>
-      <c r="I81" s="20" t="s">
-        <v>295</v>
+      <c r="I81" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="24">
       <c r="A82" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>346</v>
+        <v>288</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="C82" s="9">
         <v>42111</v>
@@ -4158,27 +4233,27 @@
         <v>89</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H82" s="2">
         <v>389</v>
       </c>
-      <c r="I82" s="20" t="s">
-        <v>295</v>
+      <c r="I82" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="24">
       <c r="A83" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B83" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="C83" s="24">
+      <c r="B83" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C83" s="23">
         <v>42110</v>
       </c>
-      <c r="D83" s="29" t="s">
-        <v>348</v>
+      <c r="D83" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>9</v>
@@ -4186,22 +4261,22 @@
       <c r="F83" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G83" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="H83" s="26">
+      <c r="G83" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H83" s="25">
         <v>390</v>
       </c>
-      <c r="I83" s="28" t="s">
-        <v>295</v>
+      <c r="I83" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B84" s="22" t="s">
-        <v>349</v>
+      <c r="B84" s="21" t="s">
+        <v>322</v>
       </c>
       <c r="C84" s="9">
         <v>42110</v>
@@ -4215,22 +4290,22 @@
       <c r="F84" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G84" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="H84" s="26">
+      <c r="G84" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H84" s="25">
         <v>390</v>
       </c>
-      <c r="I84" s="28" t="s">
-        <v>295</v>
+      <c r="I84" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="22" t="s">
-        <v>349</v>
+      <c r="B85" s="21" t="s">
+        <v>322</v>
       </c>
       <c r="C85" s="9">
         <v>42110</v>
@@ -4244,22 +4319,22 @@
       <c r="F85" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G85" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="H85" s="26">
+      <c r="G85" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H85" s="25">
         <v>390</v>
       </c>
-      <c r="I85" s="28" t="s">
-        <v>295</v>
+      <c r="I85" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="24">
       <c r="A86" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>349</v>
+      <c r="B86" s="21" t="s">
+        <v>322</v>
       </c>
       <c r="C86" s="9">
         <v>42110</v>
@@ -4273,22 +4348,22 @@
       <c r="F86" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G86" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="H86" s="26">
+      <c r="G86" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H86" s="25">
         <v>390</v>
       </c>
-      <c r="I86" s="28" t="s">
-        <v>295</v>
+      <c r="I86" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="24">
       <c r="A87" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B87" s="22" t="s">
-        <v>349</v>
+      <c r="B87" s="21" t="s">
+        <v>322</v>
       </c>
       <c r="C87" s="9">
         <v>42110</v>
@@ -4302,22 +4377,22 @@
       <c r="F87" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G87" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="H87" s="26">
+      <c r="G87" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H87" s="25">
         <v>390</v>
       </c>
-      <c r="I87" s="28" t="s">
-        <v>295</v>
+      <c r="I87" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="22" t="s">
-        <v>350</v>
+      <c r="B88" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="C88" s="9">
         <v>42110</v>
@@ -4332,21 +4407,21 @@
         <v>76</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H88" s="26">
+        <v>297</v>
+      </c>
+      <c r="H88" s="25">
         <v>390</v>
       </c>
-      <c r="I88" s="16" t="s">
-        <v>295</v>
+      <c r="I88" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B89" s="22" t="s">
-        <v>350</v>
+      <c r="B89" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="C89" s="9">
         <v>42110</v>
@@ -4361,21 +4436,21 @@
         <v>76</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H89" s="26">
+        <v>297</v>
+      </c>
+      <c r="H89" s="25">
         <v>390</v>
       </c>
-      <c r="I89" s="16" t="s">
-        <v>295</v>
+      <c r="I89" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="24">
       <c r="A90" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B90" s="22" t="s">
-        <v>350</v>
+      <c r="B90" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="C90" s="9">
         <v>42110</v>
@@ -4390,27 +4465,27 @@
         <v>76</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H90" s="26">
+        <v>297</v>
+      </c>
+      <c r="H90" s="25">
         <v>390</v>
       </c>
-      <c r="I90" s="16" t="s">
-        <v>295</v>
+      <c r="I90" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B91" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="C91" s="24">
+      <c r="B91" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C91" s="23">
         <v>42111</v>
       </c>
-      <c r="D91" s="29" t="s">
-        <v>353</v>
+      <c r="D91" s="27" t="s">
+        <v>326</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>9</v>
@@ -4419,21 +4494,21 @@
         <v>76</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H91" s="26">
+        <v>297</v>
+      </c>
+      <c r="H91" s="25">
         <v>390</v>
       </c>
-      <c r="I91" s="16" t="s">
-        <v>295</v>
+      <c r="I91" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="22" t="s">
-        <v>351</v>
+      <c r="B92" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="C92" s="9">
         <v>42111</v>
@@ -4448,21 +4523,21 @@
         <v>76</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H92" s="26">
+        <v>297</v>
+      </c>
+      <c r="H92" s="25">
         <v>390</v>
       </c>
-      <c r="I92" s="16" t="s">
-        <v>295</v>
+      <c r="I92" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B93" s="22" t="s">
-        <v>351</v>
+      <c r="B93" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="C93" s="9">
         <v>42111</v>
@@ -4477,21 +4552,21 @@
         <v>76</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H93" s="26">
+        <v>297</v>
+      </c>
+      <c r="H93" s="25">
         <v>390</v>
       </c>
-      <c r="I93" s="16" t="s">
-        <v>295</v>
+      <c r="I93" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="24">
       <c r="A94" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>351</v>
+      <c r="B94" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="C94" s="9">
         <v>42111</v>
@@ -4506,27 +4581,27 @@
         <v>76</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H94" s="26">
+        <v>297</v>
+      </c>
+      <c r="H94" s="25">
         <v>390</v>
       </c>
-      <c r="I94" s="16" t="s">
-        <v>295</v>
+      <c r="I94" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B95" s="22" t="s">
-        <v>354</v>
+      <c r="B95" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="C95" s="9">
         <v>42111</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>9</v>
@@ -4535,27 +4610,27 @@
         <v>76</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H95" s="26">
+        <v>297</v>
+      </c>
+      <c r="H95" s="25">
         <v>390</v>
       </c>
-      <c r="I95" s="16" t="s">
-        <v>295</v>
+      <c r="I95" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B96" s="22" t="s">
-        <v>354</v>
+      <c r="B96" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="C96" s="9">
         <v>42111</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>9</v>
@@ -4564,21 +4639,21 @@
         <v>76</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H96" s="26">
+        <v>297</v>
+      </c>
+      <c r="H96" s="25">
         <v>390</v>
       </c>
-      <c r="I96" s="16" t="s">
-        <v>295</v>
+      <c r="I96" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="24">
       <c r="A97" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>354</v>
+      <c r="B97" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="C97" s="9">
         <v>42111</v>
@@ -4593,27 +4668,27 @@
         <v>76</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H97" s="26">
+        <v>297</v>
+      </c>
+      <c r="H97" s="25">
         <v>390</v>
       </c>
-      <c r="I97" s="16" t="s">
-        <v>295</v>
+      <c r="I97" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="36">
       <c r="A98" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B98" s="23" t="s">
-        <v>357</v>
+      <c r="B98" s="22" t="s">
+        <v>330</v>
       </c>
       <c r="C98" s="9">
         <v>42111</v>
       </c>
-      <c r="D98" s="29" t="s">
-        <v>358</v>
+      <c r="D98" s="27" t="s">
+        <v>331</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>9</v>
@@ -4622,27 +4697,27 @@
         <v>76</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H98" s="26">
+        <v>297</v>
+      </c>
+      <c r="H98" s="25">
         <v>390</v>
       </c>
-      <c r="I98" s="16" t="s">
-        <v>295</v>
+      <c r="I98" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="24">
       <c r="A99" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B99" s="23" t="s">
-        <v>359</v>
+      <c r="B99" s="22" t="s">
+        <v>332</v>
       </c>
       <c r="C99" s="9">
         <v>42111</v>
       </c>
-      <c r="D99" s="29" t="s">
-        <v>360</v>
+      <c r="D99" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>9</v>
@@ -4651,27 +4726,27 @@
         <v>76</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H99" s="26">
+        <v>297</v>
+      </c>
+      <c r="H99" s="25">
         <v>390</v>
       </c>
-      <c r="I99" s="16" t="s">
-        <v>295</v>
+      <c r="I99" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="24">
       <c r="A100" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="C100" s="24">
+      <c r="B100" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C100" s="23">
         <v>42114</v>
       </c>
-      <c r="D100" s="29" t="s">
-        <v>363</v>
+      <c r="D100" s="27" t="s">
+        <v>336</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>9</v>
@@ -4680,27 +4755,27 @@
         <v>98</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H100" s="26">
+        <v>334</v>
+      </c>
+      <c r="H100" s="25">
         <v>391</v>
       </c>
-      <c r="I100" s="26" t="s">
-        <v>295</v>
+      <c r="I100" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="24">
       <c r="A101" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="C101" s="24">
+      <c r="B101" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" s="23">
         <v>42114</v>
       </c>
-      <c r="D101" s="29" t="s">
-        <v>365</v>
+      <c r="D101" s="27" t="s">
+        <v>338</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>9</v>
@@ -4709,21 +4784,21 @@
         <v>98</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H101" s="26">
+        <v>334</v>
+      </c>
+      <c r="H101" s="25">
         <v>391</v>
       </c>
-      <c r="I101" s="26" t="s">
-        <v>295</v>
+      <c r="I101" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="22" t="s">
-        <v>366</v>
+      <c r="B102" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="C102" s="9">
         <v>42114</v>
@@ -4738,21 +4813,21 @@
         <v>98</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H102" s="26">
+        <v>334</v>
+      </c>
+      <c r="H102" s="25">
         <v>391</v>
       </c>
-      <c r="I102" s="26" t="s">
-        <v>295</v>
+      <c r="I102" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="22" t="s">
-        <v>366</v>
+      <c r="B103" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="C103" s="9">
         <v>42114</v>
@@ -4767,21 +4842,21 @@
         <v>98</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H103" s="26">
+        <v>334</v>
+      </c>
+      <c r="H103" s="25">
         <v>391</v>
       </c>
-      <c r="I103" s="26" t="s">
-        <v>295</v>
+      <c r="I103" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="24">
       <c r="A104" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B104" s="22" t="s">
-        <v>366</v>
+      <c r="B104" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="C104" s="9">
         <v>42114</v>
@@ -4796,21 +4871,21 @@
         <v>98</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H104" s="26">
+        <v>334</v>
+      </c>
+      <c r="H104" s="25">
         <v>391</v>
       </c>
-      <c r="I104" s="26" t="s">
-        <v>295</v>
+      <c r="I104" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="22" t="s">
-        <v>367</v>
+      <c r="B105" s="21" t="s">
+        <v>340</v>
       </c>
       <c r="C105" s="9">
         <v>42114</v>
@@ -4825,21 +4900,21 @@
         <v>98</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H105" s="26">
+        <v>334</v>
+      </c>
+      <c r="H105" s="25">
         <v>391</v>
       </c>
-      <c r="I105" s="26" t="s">
-        <v>295</v>
+      <c r="I105" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B106" s="22" t="s">
-        <v>367</v>
+      <c r="B106" s="21" t="s">
+        <v>340</v>
       </c>
       <c r="C106" s="9">
         <v>42114</v>
@@ -4854,21 +4929,21 @@
         <v>98</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H106" s="26">
+        <v>334</v>
+      </c>
+      <c r="H106" s="25">
         <v>391</v>
       </c>
-      <c r="I106" s="26" t="s">
-        <v>295</v>
+      <c r="I106" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="24">
       <c r="A107" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="22" t="s">
-        <v>367</v>
+      <c r="B107" s="21" t="s">
+        <v>340</v>
       </c>
       <c r="C107" s="9">
         <v>42114</v>
@@ -4883,21 +4958,21 @@
         <v>98</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H107" s="26">
+        <v>334</v>
+      </c>
+      <c r="H107" s="25">
         <v>391</v>
       </c>
-      <c r="I107" s="26" t="s">
-        <v>295</v>
+      <c r="I107" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B108" s="22" t="s">
-        <v>368</v>
+      <c r="B108" s="21" t="s">
+        <v>341</v>
       </c>
       <c r="C108" s="9">
         <v>42114</v>
@@ -4912,21 +4987,21 @@
         <v>98</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H108" s="26">
+        <v>334</v>
+      </c>
+      <c r="H108" s="25">
         <v>391</v>
       </c>
-      <c r="I108" s="26" t="s">
-        <v>295</v>
+      <c r="I108" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="22" t="s">
-        <v>368</v>
+      <c r="B109" s="21" t="s">
+        <v>341</v>
       </c>
       <c r="C109" s="9">
         <v>42114</v>
@@ -4941,21 +5016,21 @@
         <v>98</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H109" s="26">
+        <v>334</v>
+      </c>
+      <c r="H109" s="25">
         <v>391</v>
       </c>
-      <c r="I109" s="26" t="s">
-        <v>295</v>
+      <c r="I109" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="24">
       <c r="A110" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B110" s="22" t="s">
-        <v>368</v>
+      <c r="B110" s="21" t="s">
+        <v>341</v>
       </c>
       <c r="C110" s="9">
         <v>42114</v>
@@ -4970,21 +5045,21 @@
         <v>98</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H110" s="26">
+        <v>334</v>
+      </c>
+      <c r="H110" s="25">
         <v>391</v>
       </c>
-      <c r="I110" s="26" t="s">
-        <v>295</v>
+      <c r="I110" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>372</v>
+      <c r="A111" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>345</v>
       </c>
       <c r="C111" s="9">
         <v>42111</v>
@@ -4999,21 +5074,21 @@
         <v>96</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H111" s="2">
         <v>392</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="B112" s="22" t="s">
-        <v>372</v>
+      <c r="A112" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>345</v>
       </c>
       <c r="C112" s="9">
         <v>42111</v>
@@ -5028,21 +5103,21 @@
         <v>96</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H112" s="2">
         <v>392</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="24">
-      <c r="A113" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>372</v>
+      <c r="A113" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>345</v>
       </c>
       <c r="C113" s="9">
         <v>42111</v>
@@ -5057,27 +5132,27 @@
         <v>96</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H113" s="2">
         <v>392</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="24">
-      <c r="A114" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>370</v>
+      <c r="A114" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>343</v>
       </c>
       <c r="C114" s="9">
         <v>42111</v>
       </c>
-      <c r="D114" s="29" t="s">
-        <v>371</v>
+      <c r="D114" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>9</v>
@@ -5086,21 +5161,21 @@
         <v>96</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H114" s="2">
         <v>392</v>
       </c>
-      <c r="I114" s="26" t="s">
-        <v>295</v>
+      <c r="I114" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B115" s="22" t="s">
-        <v>374</v>
+        <v>346</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="C115" s="9">
         <v>42114</v>
@@ -5115,21 +5190,21 @@
         <v>123</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H115" s="2">
         <v>393</v>
       </c>
-      <c r="I115" s="26" t="s">
-        <v>295</v>
+      <c r="I115" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>374</v>
+        <v>346</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="C116" s="9">
         <v>42114</v>
@@ -5144,21 +5219,21 @@
         <v>123</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H116" s="2">
         <v>393</v>
       </c>
-      <c r="I116" s="26" t="s">
-        <v>295</v>
+      <c r="I116" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="24">
       <c r="A117" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>374</v>
+        <v>346</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="C117" s="9">
         <v>42114</v>
@@ -5173,288 +5248,288 @@
         <v>123</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="H117" s="2">
         <v>393</v>
       </c>
-      <c r="I117" s="26" t="s">
-        <v>295</v>
+      <c r="I117" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>375</v>
+        <v>220</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="C118" s="9">
         <v>42118</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H118" s="2">
         <v>394</v>
       </c>
-      <c r="I118" s="16" t="s">
-        <v>295</v>
+      <c r="I118" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>375</v>
+        <v>220</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="C119" s="9">
         <v>42118</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H119" s="2">
         <v>394</v>
       </c>
-      <c r="I119" s="16" t="s">
-        <v>295</v>
+      <c r="I119" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="24">
       <c r="A120" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B120" s="22" t="s">
-        <v>375</v>
+        <v>220</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="C120" s="9">
         <v>42118</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H120" s="2">
         <v>394</v>
       </c>
-      <c r="I120" s="16" t="s">
-        <v>295</v>
+      <c r="I120" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B121" s="22" t="s">
-        <v>376</v>
+        <v>220</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>349</v>
       </c>
       <c r="C121" s="9">
         <v>42118</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H121" s="2">
         <v>394</v>
       </c>
-      <c r="I121" s="16" t="s">
-        <v>295</v>
+      <c r="I121" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B122" s="22" t="s">
-        <v>376</v>
+        <v>220</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>349</v>
       </c>
       <c r="C122" s="9">
         <v>42118</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H122" s="2">
         <v>394</v>
       </c>
-      <c r="I122" s="16" t="s">
-        <v>295</v>
+      <c r="I122" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="24">
       <c r="A123" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B123" s="22" t="s">
-        <v>376</v>
+        <v>220</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>349</v>
       </c>
       <c r="C123" s="9">
         <v>42118</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H123" s="2">
         <v>394</v>
       </c>
-      <c r="I123" s="16" t="s">
-        <v>295</v>
+      <c r="I123" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>377</v>
+        <v>220</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="C124" s="9">
         <v>42118</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H124" s="2">
         <v>394</v>
       </c>
-      <c r="I124" s="16" t="s">
-        <v>295</v>
+      <c r="I124" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B125" s="22" t="s">
-        <v>377</v>
+        <v>220</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="C125" s="9">
         <v>42118</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E125" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H125" s="2">
         <v>394</v>
       </c>
-      <c r="I125" s="16" t="s">
-        <v>295</v>
+      <c r="I125" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="24">
       <c r="A126" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>377</v>
+        <v>220</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="C126" s="9">
         <v>42118</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="E126" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H126" s="2">
         <v>394</v>
       </c>
-      <c r="I126" s="16" t="s">
-        <v>295</v>
+      <c r="I126" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="24">
       <c r="A127" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B127" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="C127" s="30">
+      <c r="B127" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="C127" s="28">
         <v>42121</v>
       </c>
-      <c r="D127" s="29" t="s">
-        <v>388</v>
+      <c r="D127" s="27" t="s">
+        <v>361</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>9</v>
@@ -5463,27 +5538,27 @@
         <v>50</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H127" s="2">
         <v>395</v>
       </c>
-      <c r="I127" s="16" t="s">
-        <v>295</v>
+      <c r="I127" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B128" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="C128" s="30">
+      <c r="B128" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C128" s="28">
         <v>42121</v>
       </c>
-      <c r="D128" s="29" t="s">
-        <v>379</v>
+      <c r="D128" s="27" t="s">
+        <v>352</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>9</v>
@@ -5492,27 +5567,27 @@
         <v>50</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H128" s="2">
         <v>395</v>
       </c>
-      <c r="I128" s="16" t="s">
-        <v>295</v>
+      <c r="I128" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B129" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="C129" s="30">
+      <c r="B129" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C129" s="28">
         <v>42121</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>9</v>
@@ -5521,27 +5596,27 @@
         <v>50</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H129" s="2">
         <v>395</v>
       </c>
-      <c r="I129" s="16" t="s">
-        <v>295</v>
+      <c r="I129" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B130" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="C130" s="30">
+      <c r="B130" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C130" s="28">
         <v>42121</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>9</v>
@@ -5550,27 +5625,27 @@
         <v>50</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H130" s="2">
         <v>395</v>
       </c>
-      <c r="I130" s="16" t="s">
-        <v>295</v>
+      <c r="I130" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="24">
       <c r="A131" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B131" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="C131" s="30">
+      <c r="B131" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C131" s="28">
         <v>42121</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>9</v>
@@ -5579,27 +5654,27 @@
         <v>50</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H131" s="2">
         <v>395</v>
       </c>
-      <c r="I131" s="16" t="s">
-        <v>295</v>
+      <c r="I131" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B132" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="C132" s="24">
+      <c r="B132" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C132" s="23">
         <v>42121</v>
       </c>
-      <c r="D132" s="29" t="s">
-        <v>385</v>
+      <c r="D132" s="27" t="s">
+        <v>358</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>9</v>
@@ -5608,27 +5683,27 @@
         <v>50</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H132" s="2">
         <v>395</v>
       </c>
-      <c r="I132" s="16" t="s">
-        <v>295</v>
+      <c r="I132" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="24">
       <c r="A133" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B133" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="C133" s="24">
+      <c r="B133" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C133" s="23">
         <v>42121</v>
       </c>
-      <c r="D133" s="29" t="s">
-        <v>386</v>
+      <c r="D133" s="27" t="s">
+        <v>359</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>9</v>
@@ -5637,2642 +5712,3456 @@
         <v>50</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="H133" s="2">
         <v>395</v>
       </c>
-      <c r="I133" s="16" t="s">
-        <v>295</v>
+      <c r="I133" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>391</v>
+        <v>192</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>364</v>
       </c>
       <c r="C134" s="9">
         <v>42117</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="H134" s="2">
         <v>396</v>
       </c>
-      <c r="I134" s="16" t="s">
-        <v>295</v>
+      <c r="I134" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B135" s="22" t="s">
-        <v>391</v>
+        <v>192</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>364</v>
       </c>
       <c r="C135" s="9">
         <v>42117</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="H135" s="2">
         <v>396</v>
       </c>
-      <c r="I135" s="16" t="s">
-        <v>295</v>
+      <c r="I135" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="24">
       <c r="A136" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B136" s="22" t="s">
-        <v>391</v>
+        <v>192</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>364</v>
       </c>
       <c r="C136" s="9">
         <v>42117</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="H136" s="2">
         <v>396</v>
       </c>
-      <c r="I136" s="16" t="s">
-        <v>295</v>
+      <c r="I136" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B137" s="22" t="s">
-        <v>392</v>
+        <v>192</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="C137" s="9">
         <v>42117</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="H137" s="2">
         <v>396</v>
       </c>
-      <c r="I137" s="16" t="s">
-        <v>295</v>
+      <c r="I137" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B138" s="22" t="s">
-        <v>392</v>
+        <v>192</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="C138" s="9">
         <v>42117</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="H138" s="2">
         <v>396</v>
       </c>
-      <c r="I138" s="16" t="s">
-        <v>295</v>
+      <c r="I138" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="24">
       <c r="A139" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B139" s="22" t="s">
-        <v>392</v>
+        <v>192</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="C139" s="9">
         <v>42117</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="H139" s="2">
         <v>396</v>
       </c>
-      <c r="I139" s="16" t="s">
-        <v>295</v>
+      <c r="I139" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B140" s="23" t="s">
-        <v>389</v>
+        <v>192</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="C140" s="9">
         <v>42117</v>
       </c>
-      <c r="D140" s="29" t="s">
-        <v>390</v>
+      <c r="D140" s="27" t="s">
+        <v>363</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="H140" s="2">
         <v>396</v>
       </c>
-      <c r="I140" s="16" t="s">
-        <v>295</v>
+      <c r="I140" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C141" s="9">
+      <c r="A141" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C141" s="23">
         <v>42117</v>
       </c>
-      <c r="D141" s="10" t="s">
-        <v>203</v>
+      <c r="D141" s="27" t="s">
+        <v>367</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="20"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C142" s="9">
+        <v>181</v>
+      </c>
+      <c r="G141" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="48">
+      <c r="A142" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C142" s="23">
         <v>42117</v>
       </c>
-      <c r="D142" s="10" t="s">
-        <v>204</v>
+      <c r="D142" s="27" t="s">
+        <v>369</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="20"/>
-    </row>
-    <row r="143" spans="1:9" ht="24">
-      <c r="A143" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>201</v>
+        <v>181</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H142" s="25">
+        <v>397</v>
+      </c>
+      <c r="I142" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>370</v>
       </c>
       <c r="C143" s="9">
         <v>42117</v>
       </c>
-      <c r="D143" s="10" t="s">
-        <v>205</v>
+      <c r="D143" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="20"/>
+        <v>181</v>
+      </c>
+      <c r="G143" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H143" s="25">
+        <v>397</v>
+      </c>
+      <c r="I143" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>206</v>
+      <c r="A144" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>370</v>
       </c>
       <c r="C144" s="9">
         <v>42117</v>
       </c>
-      <c r="D144" s="10" t="s">
-        <v>207</v>
+      <c r="D144" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="20"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>206</v>
+        <v>181</v>
+      </c>
+      <c r="G144" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H144" s="25">
+        <v>397</v>
+      </c>
+      <c r="I144" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="24">
+      <c r="A145" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>370</v>
       </c>
       <c r="C145" s="9">
         <v>42117</v>
       </c>
-      <c r="D145" s="10" t="s">
-        <v>208</v>
+      <c r="D145" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="20"/>
-    </row>
-    <row r="146" spans="1:9" ht="24">
-      <c r="A146" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>206</v>
+        <v>181</v>
+      </c>
+      <c r="G145" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H145" s="25">
+        <v>397</v>
+      </c>
+      <c r="I145" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>371</v>
       </c>
       <c r="C146" s="9">
         <v>42117</v>
       </c>
-      <c r="D146" s="10" t="s">
-        <v>209</v>
+      <c r="D146" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="20"/>
+        <v>181</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H146" s="25">
+        <v>397</v>
+      </c>
+      <c r="I146" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>210</v>
+      <c r="A147" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>371</v>
       </c>
       <c r="C147" s="9">
         <v>42117</v>
       </c>
-      <c r="D147" s="10" t="s">
-        <v>208</v>
+      <c r="D147" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="20"/>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>210</v>
+        <v>181</v>
+      </c>
+      <c r="G147" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H147" s="25">
+        <v>397</v>
+      </c>
+      <c r="I147" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="24">
+      <c r="A148" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>371</v>
       </c>
       <c r="C148" s="9">
         <v>42117</v>
       </c>
-      <c r="D148" s="10" t="s">
-        <v>203</v>
+      <c r="D148" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="20"/>
-    </row>
-    <row r="149" spans="1:9" ht="24">
-      <c r="A149" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>210</v>
+        <v>181</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H148" s="25">
+        <v>397</v>
+      </c>
+      <c r="I148" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>372</v>
       </c>
       <c r="C149" s="9">
         <v>42117</v>
       </c>
-      <c r="D149" s="10" t="s">
-        <v>211</v>
+      <c r="D149" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="20"/>
+        <v>181</v>
+      </c>
+      <c r="G149" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H149" s="25">
+        <v>397</v>
+      </c>
+      <c r="I149" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>212</v>
+      <c r="A150" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>372</v>
       </c>
       <c r="C150" s="9">
         <v>42117</v>
       </c>
-      <c r="D150" s="10" t="s">
-        <v>213</v>
+      <c r="D150" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="20"/>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>212</v>
+        <v>181</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H150" s="25">
+        <v>397</v>
+      </c>
+      <c r="I150" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="24">
+      <c r="A151" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>372</v>
       </c>
       <c r="C151" s="9">
         <v>42117</v>
       </c>
-      <c r="D151" s="10" t="s">
-        <v>214</v>
+      <c r="D151" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="20"/>
-    </row>
-    <row r="152" spans="1:9" ht="24">
-      <c r="A152" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>212</v>
+        <v>181</v>
+      </c>
+      <c r="G151" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H151" s="25">
+        <v>397</v>
+      </c>
+      <c r="I151" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>373</v>
       </c>
       <c r="C152" s="9">
         <v>42117</v>
       </c>
-      <c r="D152" s="10" t="s">
-        <v>215</v>
+      <c r="D152" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="20"/>
+        <v>181</v>
+      </c>
+      <c r="G152" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H152" s="25">
+        <v>397</v>
+      </c>
+      <c r="I152" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>139</v>
+      <c r="A153" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>373</v>
       </c>
       <c r="C153" s="9">
-        <v>42114</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>141</v>
+        <v>42117</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="20"/>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>139</v>
+        <v>181</v>
+      </c>
+      <c r="G153" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H153" s="25">
+        <v>397</v>
+      </c>
+      <c r="I153" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="24">
+      <c r="A154" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>373</v>
       </c>
       <c r="C154" s="9">
-        <v>42114</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>142</v>
+        <v>42117</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="20"/>
+        <v>181</v>
+      </c>
+      <c r="G154" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H154" s="25">
+        <v>397</v>
+      </c>
+      <c r="I154" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="155" spans="1:9" ht="24">
       <c r="A155" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C155" s="9">
+      <c r="B155" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="C155" s="23">
         <v>42114</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D155" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="20"/>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="G155" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="H155" s="25">
+        <v>398</v>
+      </c>
+      <c r="I155" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="24">
       <c r="A156" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B156" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C156" s="9">
+      <c r="B156" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="C156" s="23">
         <v>42114</v>
       </c>
-      <c r="D156" s="10" t="s">
-        <v>144</v>
+      <c r="D156" s="27" t="s">
+        <v>378</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="20"/>
-    </row>
-    <row r="157" spans="1:9" ht="24">
+        <v>143</v>
+      </c>
+      <c r="G156" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="H156" s="25">
+        <v>398</v>
+      </c>
+      <c r="I156" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>140</v>
+      <c r="B157" s="21" t="s">
+        <v>379</v>
       </c>
       <c r="C157" s="9">
         <v>42114</v>
       </c>
-      <c r="D157" s="10" t="s">
-        <v>146</v>
+      <c r="D157" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="20"/>
-    </row>
-    <row r="158" spans="1:9" ht="24">
+        <v>143</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H157" s="25">
+        <v>398</v>
+      </c>
+      <c r="I157" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>147</v>
+      <c r="B158" s="21" t="s">
+        <v>379</v>
       </c>
       <c r="C158" s="9">
         <v>42114</v>
       </c>
-      <c r="D158" s="10" t="s">
-        <v>149</v>
+      <c r="D158" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="20"/>
-    </row>
-    <row r="159" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H158" s="25">
+        <v>398</v>
+      </c>
+      <c r="I158" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="24">
       <c r="A159" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>147</v>
+      <c r="B159" s="21" t="s">
+        <v>379</v>
       </c>
       <c r="C159" s="9">
         <v>42114</v>
       </c>
-      <c r="D159" s="10" t="s">
-        <v>148</v>
+      <c r="D159" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H159" s="25">
+        <v>398</v>
+      </c>
+      <c r="I159" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>150</v>
+      <c r="B160" s="21" t="s">
+        <v>380</v>
       </c>
       <c r="C160" s="9">
         <v>42114</v>
       </c>
-      <c r="D160" s="10" t="s">
-        <v>152</v>
+      <c r="D160" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H160" s="25">
+        <v>398</v>
+      </c>
+      <c r="I160" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="161" spans="1:9" ht="24">
       <c r="A161" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>150</v>
+      <c r="B161" s="21" t="s">
+        <v>380</v>
       </c>
       <c r="C161" s="9">
         <v>42114</v>
       </c>
-      <c r="D161" s="10" t="s">
-        <v>151</v>
+      <c r="D161" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="20"/>
-    </row>
-    <row r="162" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H161" s="25">
+        <v>398</v>
+      </c>
+      <c r="I161" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="24">
       <c r="A162" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>153</v>
+      <c r="B162" s="21" t="s">
+        <v>381</v>
       </c>
       <c r="C162" s="9">
         <v>42114</v>
       </c>
-      <c r="D162" s="10" t="s">
-        <v>154</v>
+      <c r="D162" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H162" s="25">
+        <v>398</v>
+      </c>
+      <c r="I162" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>153</v>
+      <c r="B163" s="21" t="s">
+        <v>381</v>
       </c>
       <c r="C163" s="9">
         <v>42114</v>
       </c>
-      <c r="D163" s="10" t="s">
-        <v>155</v>
+      <c r="D163" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="20"/>
-    </row>
-    <row r="164" spans="1:9" ht="24">
+        <v>143</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H163" s="25">
+        <v>398</v>
+      </c>
+      <c r="I163" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B164" s="8" t="s">
-        <v>153</v>
+      <c r="B164" s="21" t="s">
+        <v>382</v>
       </c>
       <c r="C164" s="9">
         <v>42114</v>
       </c>
-      <c r="D164" s="10" t="s">
-        <v>156</v>
+      <c r="D164" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="20"/>
-    </row>
-    <row r="165" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H164" s="25">
+        <v>398</v>
+      </c>
+      <c r="I164" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="24">
       <c r="A165" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>158</v>
+        <v>138</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>382</v>
       </c>
       <c r="C165" s="9">
-        <v>42116</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>160</v>
+        <v>42114</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H165" s="25">
+        <v>398</v>
+      </c>
+      <c r="I165" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>158</v>
+        <v>138</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>383</v>
       </c>
       <c r="C166" s="9">
-        <v>42116</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>161</v>
+        <v>42114</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="20"/>
-    </row>
-    <row r="167" spans="1:9" ht="24">
+        <v>143</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H166" s="25">
+        <v>398</v>
+      </c>
+      <c r="I166" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>158</v>
+        <v>138</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>383</v>
       </c>
       <c r="C167" s="9">
-        <v>42116</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>162</v>
+        <v>42114</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="20"/>
-    </row>
-    <row r="168" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H167" s="25">
+        <v>398</v>
+      </c>
+      <c r="I167" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="24">
       <c r="A168" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>163</v>
+        <v>138</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>383</v>
       </c>
       <c r="C168" s="9">
-        <v>42116</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>164</v>
+        <v>42114</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="20"/>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C169" s="9">
-        <v>42116</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>165</v>
+        <v>143</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H168" s="25">
+        <v>398</v>
+      </c>
+      <c r="I168" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="24">
+      <c r="A169" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B169" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C169" s="23"/>
+      <c r="D169" s="27" t="s">
+        <v>409</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="20"/>
-    </row>
-    <row r="170" spans="1:9" ht="24">
-      <c r="A170" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>163</v>
+        <v>396</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H169" s="25">
+        <v>399</v>
+      </c>
+      <c r="I169" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="36">
+      <c r="A170" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>384</v>
       </c>
       <c r="C170" s="9">
         <v>42116</v>
       </c>
-      <c r="D170" s="10" t="s">
-        <v>166</v>
+      <c r="D170" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="20"/>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>167</v>
+        <v>396</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H170" s="25">
+        <v>399</v>
+      </c>
+      <c r="I170" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="60">
+      <c r="A171" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B171" s="22" t="s">
+        <v>400</v>
       </c>
       <c r="C171" s="9">
         <v>42116</v>
       </c>
-      <c r="D171" s="10" t="s">
-        <v>168</v>
+      <c r="D171" s="27" t="s">
+        <v>401</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="20"/>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>167</v>
+        <v>396</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H171" s="25">
+        <v>399</v>
+      </c>
+      <c r="I171" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="24">
+      <c r="A172" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>403</v>
       </c>
       <c r="C172" s="9">
         <v>42116</v>
       </c>
-      <c r="D172" s="10" t="s">
-        <v>169</v>
+      <c r="D172" s="27" t="s">
+        <v>404</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="20"/>
-    </row>
-    <row r="173" spans="1:9" ht="24">
-      <c r="A173" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>167</v>
+        <v>396</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H172" s="25">
+        <v>399</v>
+      </c>
+      <c r="I172" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="36">
+      <c r="A173" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B173" s="22" t="s">
+        <v>405</v>
       </c>
       <c r="C173" s="9">
         <v>42116</v>
       </c>
-      <c r="D173" s="10" t="s">
-        <v>170</v>
+      <c r="D173" s="27" t="s">
+        <v>406</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="20"/>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C174" s="9">
+        <v>396</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H173" s="25">
+        <v>399</v>
+      </c>
+      <c r="I173" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="60">
+      <c r="A174" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C174" s="23">
         <v>42116</v>
       </c>
-      <c r="D174" s="10" t="s">
-        <v>172</v>
+      <c r="D174" s="27" t="s">
+        <v>399</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="20"/>
+        <v>396</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H174" s="25">
+        <v>399</v>
+      </c>
+      <c r="I174" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>171</v>
+      <c r="A175" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>397</v>
       </c>
       <c r="C175" s="9">
         <v>42116</v>
       </c>
-      <c r="D175" s="10" t="s">
-        <v>173</v>
+      <c r="D175" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="20"/>
-    </row>
-    <row r="176" spans="1:9" ht="24">
-      <c r="A176" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>171</v>
+        <v>396</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H175" s="25">
+        <v>399</v>
+      </c>
+      <c r="I175" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>397</v>
       </c>
       <c r="C176" s="9">
         <v>42116</v>
       </c>
-      <c r="D176" s="10" t="s">
-        <v>174</v>
+      <c r="D176" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="20"/>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>175</v>
+        <v>396</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H176" s="25">
+        <v>399</v>
+      </c>
+      <c r="I176" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="24">
+      <c r="A177" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>397</v>
       </c>
       <c r="C177" s="9">
         <v>42116</v>
       </c>
-      <c r="D177" s="10" t="s">
-        <v>176</v>
+      <c r="D177" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="20"/>
+        <v>396</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H177" s="25">
+        <v>399</v>
+      </c>
+      <c r="I177" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>175</v>
+      <c r="A178" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>386</v>
       </c>
       <c r="C178" s="9">
         <v>42116</v>
       </c>
-      <c r="D178" s="10" t="s">
-        <v>172</v>
+      <c r="D178" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="20"/>
-    </row>
-    <row r="179" spans="1:9" ht="24">
-      <c r="A179" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>175</v>
+        <v>396</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H178" s="25">
+        <v>399</v>
+      </c>
+      <c r="I178" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>386</v>
       </c>
       <c r="C179" s="9">
         <v>42116</v>
       </c>
-      <c r="D179" s="10" t="s">
-        <v>177</v>
+      <c r="D179" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="20"/>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>178</v>
+        <v>396</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H179" s="25">
+        <v>399</v>
+      </c>
+      <c r="I179" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="24">
+      <c r="A180" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>386</v>
       </c>
       <c r="C180" s="9">
         <v>42116</v>
       </c>
-      <c r="D180" s="10" t="s">
-        <v>179</v>
+      <c r="D180" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="20"/>
+        <v>396</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H180" s="25">
+        <v>399</v>
+      </c>
+      <c r="I180" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>178</v>
+      <c r="A181" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>387</v>
       </c>
       <c r="C181" s="9">
         <v>42116</v>
       </c>
-      <c r="D181" s="10" t="s">
-        <v>160</v>
+      <c r="D181" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="20"/>
-    </row>
-    <row r="182" spans="1:9" ht="24">
-      <c r="A182" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>178</v>
+        <v>396</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H181" s="25">
+        <v>399</v>
+      </c>
+      <c r="I181" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B182" s="21" t="s">
+        <v>387</v>
       </c>
       <c r="C182" s="9">
         <v>42116</v>
       </c>
-      <c r="D182" s="10" t="s">
-        <v>180</v>
+      <c r="D182" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="20"/>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>181</v>
+        <v>396</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H182" s="25">
+        <v>399</v>
+      </c>
+      <c r="I182" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="24">
+      <c r="A183" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>387</v>
       </c>
       <c r="C183" s="9">
         <v>42116</v>
       </c>
-      <c r="D183" s="10" t="s">
-        <v>182</v>
+      <c r="D183" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="20"/>
+        <v>396</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H183" s="25">
+        <v>399</v>
+      </c>
+      <c r="I183" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>181</v>
+      <c r="A184" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>388</v>
       </c>
       <c r="C184" s="9">
         <v>42116</v>
       </c>
-      <c r="D184" s="10" t="s">
-        <v>179</v>
+      <c r="D184" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="20"/>
-    </row>
-    <row r="185" spans="1:9" ht="24">
-      <c r="A185" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>181</v>
+        <v>396</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H184" s="25">
+        <v>399</v>
+      </c>
+      <c r="I184" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>388</v>
       </c>
       <c r="C185" s="9">
         <v>42116</v>
       </c>
-      <c r="D185" s="10" t="s">
-        <v>183</v>
+      <c r="D185" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="20"/>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>184</v>
+        <v>396</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H185" s="25">
+        <v>399</v>
+      </c>
+      <c r="I185" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="24">
+      <c r="A186" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B186" s="21" t="s">
+        <v>388</v>
       </c>
       <c r="C186" s="9">
         <v>42116</v>
       </c>
-      <c r="D186" s="10" t="s">
-        <v>185</v>
+      <c r="D186" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="20"/>
+        <v>396</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H186" s="25">
+        <v>399</v>
+      </c>
+      <c r="I186" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>184</v>
+      <c r="A187" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="C187" s="9">
         <v>42116</v>
       </c>
-      <c r="D187" s="10" t="s">
-        <v>186</v>
+      <c r="D187" s="27" t="s">
+        <v>392</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="20"/>
-    </row>
-    <row r="188" spans="1:9" ht="24">
-      <c r="A188" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>184</v>
+        <v>396</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H187" s="25">
+        <v>399</v>
+      </c>
+      <c r="I187" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B188" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="C188" s="9">
         <v>42116</v>
       </c>
-      <c r="D188" s="10" t="s">
-        <v>187</v>
+      <c r="D188" s="27" t="s">
+        <v>393</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="20"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>194</v>
+        <v>396</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H188" s="25">
+        <v>399</v>
+      </c>
+      <c r="I188" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="24">
+      <c r="A189" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="C189" s="9">
         <v>42116</v>
       </c>
-      <c r="D189" s="10" t="s">
-        <v>197</v>
+      <c r="D189" s="27" t="s">
+        <v>394</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="20"/>
+        <v>396</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H189" s="25">
+        <v>399</v>
+      </c>
+      <c r="I189" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>194</v>
+      <c r="A190" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B190" s="21" t="s">
+        <v>389</v>
       </c>
       <c r="C190" s="9">
         <v>42116</v>
       </c>
-      <c r="D190" s="10" t="s">
-        <v>198</v>
+      <c r="D190" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="20"/>
-    </row>
-    <row r="191" spans="1:9" ht="24">
-      <c r="A191" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>194</v>
+        <v>396</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H190" s="25">
+        <v>399</v>
+      </c>
+      <c r="I190" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B191" s="21" t="s">
+        <v>389</v>
       </c>
       <c r="C191" s="9">
         <v>42116</v>
       </c>
-      <c r="D191" s="10" t="s">
-        <v>199</v>
+      <c r="D191" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="20"/>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>191</v>
+        <v>396</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H191" s="25">
+        <v>399</v>
+      </c>
+      <c r="I191" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="24">
+      <c r="A192" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B192" s="21" t="s">
+        <v>389</v>
       </c>
       <c r="C192" s="9">
         <v>42116</v>
       </c>
-      <c r="D192" s="10" t="s">
-        <v>192</v>
+      <c r="D192" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="20"/>
+        <v>396</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H192" s="25">
+        <v>399</v>
+      </c>
+      <c r="I192" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>191</v>
+      <c r="A193" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B193" s="21" t="s">
+        <v>390</v>
       </c>
       <c r="C193" s="9">
         <v>42116</v>
       </c>
-      <c r="D193" s="10" t="s">
-        <v>189</v>
+      <c r="D193" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="20"/>
-    </row>
-    <row r="194" spans="1:9" ht="24">
-      <c r="A194" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>191</v>
+        <v>396</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H193" s="25">
+        <v>399</v>
+      </c>
+      <c r="I193" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B194" s="21" t="s">
+        <v>390</v>
       </c>
       <c r="C194" s="9">
         <v>42116</v>
       </c>
-      <c r="D194" s="10" t="s">
-        <v>193</v>
+      <c r="D194" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="20"/>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>260</v>
+        <v>396</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H194" s="25">
+        <v>399</v>
+      </c>
+      <c r="I194" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="24">
+      <c r="A195" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>390</v>
       </c>
       <c r="C195" s="9">
-        <v>42118</v>
-      </c>
-      <c r="D195" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="E195" s="19" t="s">
+        <v>42116</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="20"/>
+        <v>396</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H195" s="25">
+        <v>399</v>
+      </c>
+      <c r="I195" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>260</v>
+      <c r="A196" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B196" s="21" t="s">
+        <v>402</v>
       </c>
       <c r="C196" s="9">
-        <v>42118</v>
-      </c>
-      <c r="D196" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E196" s="19" t="s">
+        <v>42116</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="20"/>
-    </row>
-    <row r="197" spans="1:9" ht="24">
-      <c r="A197" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>260</v>
+        <v>396</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H196" s="25">
+        <v>399</v>
+      </c>
+      <c r="I196" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B197" s="21" t="s">
+        <v>402</v>
       </c>
       <c r="C197" s="9">
-        <v>42118</v>
-      </c>
-      <c r="D197" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E197" s="19" t="s">
+        <v>42116</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="20"/>
-    </row>
-    <row r="198" spans="1:9">
-      <c r="A198" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>263</v>
+        <v>396</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H197" s="25">
+        <v>399</v>
+      </c>
+      <c r="I197" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="24">
+      <c r="A198" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B198" s="21" t="s">
+        <v>402</v>
       </c>
       <c r="C198" s="9">
-        <v>42118</v>
-      </c>
-      <c r="D198" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E198" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F198" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="G198" s="19"/>
-      <c r="H198" s="19"/>
-      <c r="I198" s="20"/>
-    </row>
-    <row r="199" spans="1:9" ht="24">
-      <c r="A199" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>263</v>
+        <v>42116</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H198" s="25">
+        <v>399</v>
+      </c>
+      <c r="I198" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B199" s="21" t="s">
+        <v>407</v>
       </c>
       <c r="C199" s="9">
-        <v>42118</v>
-      </c>
-      <c r="D199" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E199" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="G199" s="19"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="20"/>
+        <v>42116</v>
+      </c>
+      <c r="D199" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H199" s="25">
+        <v>399</v>
+      </c>
+      <c r="I199" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>124</v>
+      <c r="A200" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B200" s="21" t="s">
+        <v>407</v>
       </c>
       <c r="C200" s="9">
-        <v>42114</v>
-      </c>
-      <c r="D200" s="10" t="s">
-        <v>127</v>
+        <v>42116</v>
+      </c>
+      <c r="D200" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
-      <c r="A201" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>124</v>
+        <v>396</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H200" s="25">
+        <v>399</v>
+      </c>
+      <c r="I200" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="24">
+      <c r="A201" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" s="21" t="s">
+        <v>407</v>
       </c>
       <c r="C201" s="9">
-        <v>42114</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>126</v>
+        <v>42116</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="20" t="s">
-        <v>295</v>
+        <v>396</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H201" s="25">
+        <v>399</v>
+      </c>
+      <c r="I201" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>125</v>
+      <c r="A202" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B202" s="21" t="s">
+        <v>410</v>
       </c>
       <c r="C202" s="9">
-        <v>42114</v>
-      </c>
-      <c r="D202" s="10" t="s">
-        <v>128</v>
+        <v>42116</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="20" t="s">
-        <v>295</v>
+        <v>177</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H202" s="2">
+        <v>400</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>125</v>
+      <c r="A203" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>410</v>
       </c>
       <c r="C203" s="9">
-        <v>42114</v>
-      </c>
-      <c r="D203" s="10" t="s">
-        <v>129</v>
+        <v>42116</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="20" t="s">
-        <v>295</v>
+        <v>177</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H203" s="2">
+        <v>400</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="24">
-      <c r="A204" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>125</v>
+      <c r="A204" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B204" s="21" t="s">
+        <v>410</v>
       </c>
       <c r="C204" s="9">
-        <v>42114</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>130</v>
+        <v>42116</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
-      <c r="A205" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C205" s="9">
-        <v>42114</v>
-      </c>
-      <c r="D205" s="10" t="s">
-        <v>110</v>
+        <v>177</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H204" s="2">
+        <v>400</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="24">
+      <c r="A205" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C205" s="23">
+        <v>42116</v>
+      </c>
+      <c r="D205" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="20"/>
+        <v>174</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H205" s="25">
+        <v>401</v>
+      </c>
+      <c r="I205" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>109</v>
+      <c r="A206" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>414</v>
       </c>
       <c r="C206" s="9">
-        <v>42114</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>111</v>
+        <v>42116</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="20"/>
-    </row>
-    <row r="207" spans="1:9" ht="24">
-      <c r="A207" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>109</v>
+        <v>174</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H206" s="25">
+        <v>401</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B207" s="21" t="s">
+        <v>414</v>
       </c>
       <c r="C207" s="9">
-        <v>42114</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>112</v>
+        <v>42116</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="20"/>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="A208" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>267</v>
+        <v>174</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H207" s="25">
+        <v>401</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="24">
+      <c r="A208" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B208" s="21" t="s">
+        <v>414</v>
       </c>
       <c r="C208" s="9">
-        <v>42118</v>
-      </c>
-      <c r="D208" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E208" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F208" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="G208" s="19"/>
-      <c r="H208" s="19"/>
-      <c r="I208" s="20"/>
+        <v>42116</v>
+      </c>
+      <c r="D208" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H208" s="25">
+        <v>401</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>267</v>
+        <v>415</v>
+      </c>
+      <c r="B209" s="21" t="s">
+        <v>421</v>
       </c>
       <c r="C209" s="9">
         <v>42118</v>
       </c>
-      <c r="D209" s="10" t="s">
-        <v>272</v>
+      <c r="D209" s="15" t="s">
+        <v>422</v>
       </c>
       <c r="E209" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F209" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="G209" s="19"/>
-      <c r="H209" s="19"/>
-      <c r="I209" s="20"/>
+      <c r="F209" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H209" s="2">
+        <v>402</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="210" spans="1:9" ht="24">
       <c r="A210" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>267</v>
+        <v>415</v>
+      </c>
+      <c r="B210" s="21" t="s">
+        <v>419</v>
       </c>
       <c r="C210" s="9">
         <v>42118</v>
       </c>
-      <c r="D210" s="10" t="s">
-        <v>273</v>
+      <c r="D210" s="15" t="s">
+        <v>420</v>
       </c>
       <c r="E210" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F210" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="G210" s="19"/>
-      <c r="H210" s="19"/>
-      <c r="I210" s="20"/>
+      <c r="F210" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H210" s="2">
+        <v>402</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>45</v>
+        <v>415</v>
+      </c>
+      <c r="B211" s="21" t="s">
+        <v>416</v>
       </c>
       <c r="C211" s="9">
-        <v>42108</v>
-      </c>
-      <c r="D211" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E211" s="2" t="s">
+        <v>42118</v>
+      </c>
+      <c r="D211" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E211" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="20"/>
+        <v>418</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H211" s="2">
+        <v>402</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>45</v>
+        <v>415</v>
+      </c>
+      <c r="B212" s="21" t="s">
+        <v>416</v>
       </c>
       <c r="C212" s="9">
-        <v>42108</v>
-      </c>
-      <c r="D212" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E212" s="2" t="s">
+        <v>42118</v>
+      </c>
+      <c r="D212" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E212" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="20"/>
+        <v>418</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H212" s="2">
+        <v>402</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="213" spans="1:9" ht="24">
       <c r="A213" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>45</v>
+        <v>415</v>
+      </c>
+      <c r="B213" s="21" t="s">
+        <v>416</v>
       </c>
       <c r="C213" s="9">
-        <v>42108</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E213" s="2" t="s">
+        <v>42118</v>
+      </c>
+      <c r="D213" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E213" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="20"/>
-    </row>
-    <row r="214" spans="1:9" ht="24">
+        <v>418</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H213" s="2">
+        <v>402</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>45</v>
+        <v>415</v>
+      </c>
+      <c r="B214" s="21" t="s">
+        <v>417</v>
       </c>
       <c r="C214" s="9">
-        <v>42108</v>
-      </c>
-      <c r="D214" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E214" s="2" t="s">
+        <v>42118</v>
+      </c>
+      <c r="D214" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E214" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="20"/>
-    </row>
-    <row r="215" spans="1:9">
+        <v>418</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H214" s="2">
+        <v>402</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="24">
       <c r="A215" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>114</v>
+        <v>415</v>
+      </c>
+      <c r="B215" s="21" t="s">
+        <v>417</v>
       </c>
       <c r="C215" s="9">
-        <v>42114</v>
-      </c>
-      <c r="D215" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E215" s="2" t="s">
+        <v>42118</v>
+      </c>
+      <c r="D215" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E215" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="20"/>
+        <v>418</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H215" s="2">
+        <v>402</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="8" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C216" s="9">
         <v>42114</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
-      <c r="I216" s="20"/>
-    </row>
-    <row r="217" spans="1:9" ht="24">
+      <c r="I216" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="8" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C217" s="9">
         <v>42114</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
-      <c r="I217" s="20"/>
+      <c r="I217" s="19" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="8" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C218" s="9">
         <v>42114</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
-      <c r="I218" s="20"/>
+      <c r="I218" s="19" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="8" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C219" s="9">
         <v>42114</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
-      <c r="I219" s="20"/>
+      <c r="I219" s="19" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="220" spans="1:9" ht="24">
       <c r="A220" s="8" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C220" s="9">
         <v>42114</v>
       </c>
-      <c r="D220" s="10" t="s">
-        <v>136</v>
+      <c r="D220" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
-      <c r="I220" s="20"/>
+      <c r="I220" s="19" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="8" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C221" s="9">
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
-      <c r="I221" s="20"/>
+      <c r="I221" s="19"/>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="8" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C222" s="9">
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
-      <c r="I222" s="20"/>
+      <c r="I222" s="19"/>
     </row>
     <row r="223" spans="1:9" ht="24">
       <c r="A223" s="8" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C223" s="9">
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
-      <c r="I223" s="20"/>
-    </row>
-    <row r="224" spans="1:9" ht="24">
+      <c r="I223" s="19"/>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="8" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="C224" s="9">
-        <v>42108</v>
+        <v>42118</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="20"/>
+        <v>244</v>
+      </c>
+      <c r="E224" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G224" s="19"/>
+      <c r="H224" s="19"/>
+      <c r="I224" s="19"/>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="8" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="C225" s="9">
-        <v>42108</v>
+        <v>42118</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="20"/>
-    </row>
-    <row r="226" spans="1:9">
+        <v>245</v>
+      </c>
+      <c r="E225" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G225" s="19"/>
+      <c r="H225" s="19"/>
+      <c r="I225" s="19"/>
+    </row>
+    <row r="226" spans="1:9" ht="24">
       <c r="A226" s="8" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="C226" s="9">
-        <v>42108</v>
+        <v>42118</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="20"/>
-    </row>
-    <row r="227" spans="1:9" ht="24">
+        <v>246</v>
+      </c>
+      <c r="E226" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G226" s="19"/>
+      <c r="H226" s="19"/>
+      <c r="I226" s="19"/>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C227" s="9">
         <v>42108</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
-      <c r="I227" s="20"/>
-    </row>
-    <row r="228" spans="1:9" ht="24">
+      <c r="I227" s="19"/>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C228" s="9">
         <v>42108</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
-      <c r="I228" s="20"/>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="I228" s="19"/>
+    </row>
+    <row r="229" spans="1:9" ht="24">
       <c r="A229" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C229" s="9">
         <v>42108</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
-      <c r="I229" s="20"/>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="I229" s="19"/>
+    </row>
+    <row r="230" spans="1:9" ht="24">
       <c r="A230" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C230" s="9">
         <v>42108</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
-      <c r="I230" s="20"/>
-    </row>
-    <row r="231" spans="1:9" ht="24">
+      <c r="I230" s="19"/>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="8" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C231" s="9">
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
-      <c r="I231" s="20"/>
-    </row>
-    <row r="232" spans="1:9" ht="24">
+      <c r="I231" s="19"/>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="8" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C232" s="9">
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
-      <c r="I232" s="20"/>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="I232" s="19"/>
+    </row>
+    <row r="233" spans="1:9" ht="24">
       <c r="A233" s="8" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C233" s="9">
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
-      <c r="I233" s="20"/>
+      <c r="I233" s="19"/>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="8" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="C234" s="9">
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
-      <c r="I234" s="20"/>
-    </row>
-    <row r="235" spans="1:9" ht="24">
+      <c r="I234" s="19"/>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="8" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="C235" s="9">
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
-      <c r="I235" s="20"/>
+      <c r="I235" s="19"/>
     </row>
     <row r="236" spans="1:9" ht="24">
       <c r="A236" s="8" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="C236" s="9">
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
-      <c r="I236" s="20"/>
+      <c r="I236" s="19"/>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C237" s="9">
         <v>42108</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
-      <c r="I237" s="20"/>
+      <c r="I237" s="19"/>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C238" s="9">
         <v>42108</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
-      <c r="I238" s="20"/>
+      <c r="I238" s="19"/>
     </row>
     <row r="239" spans="1:9" ht="24">
       <c r="A239" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C239" s="9">
         <v>42108</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
-      <c r="I239" s="20"/>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="I239" s="19"/>
+    </row>
+    <row r="240" spans="1:9" ht="24">
       <c r="A240" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C240" s="9">
-        <v>42110</v>
+        <v>42108</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
-      <c r="I240" s="20"/>
+      <c r="I240" s="19"/>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C241" s="9">
-        <v>42110</v>
-      </c>
-      <c r="D241" s="15" t="s">
-        <v>80</v>
+        <v>42108</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
-      <c r="I241" s="20"/>
-    </row>
-    <row r="242" spans="1:9" ht="24">
+      <c r="I241" s="19"/>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C242" s="9">
-        <v>42110</v>
-      </c>
-      <c r="D242" s="15" t="s">
-        <v>81</v>
+        <v>42108</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
-      <c r="I242" s="20"/>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="I242" s="19"/>
+    </row>
+    <row r="243" spans="1:9" ht="24">
       <c r="A243" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C243" s="9">
-        <v>42110</v>
+        <v>42108</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
-      <c r="I243" s="20"/>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="I243" s="19"/>
+    </row>
+    <row r="244" spans="1:9" ht="24">
       <c r="A244" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C244" s="9">
-        <v>42110</v>
-      </c>
-      <c r="D244" s="15" t="s">
-        <v>79</v>
+        <v>42108</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
-      <c r="I244" s="20"/>
-    </row>
-    <row r="245" spans="1:9" ht="24">
+      <c r="I244" s="19"/>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C245" s="9">
-        <v>42110</v>
-      </c>
-      <c r="D245" s="15" t="s">
-        <v>83</v>
+        <v>42108</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
-      <c r="I245" s="20"/>
+      <c r="I245" s="19"/>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C246" s="9">
+        <v>42108</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="19"/>
+    </row>
+    <row r="247" spans="1:9" ht="24">
+      <c r="A247" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C247" s="9">
+        <v>42108</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="19"/>
+    </row>
+    <row r="248" spans="1:9" ht="24">
+      <c r="A248" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C248" s="9">
+        <v>42108</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="19"/>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C249" s="9">
+        <v>42108</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="19"/>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C250" s="9">
+        <v>42108</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="19"/>
+    </row>
+    <row r="251" spans="1:9" ht="24">
+      <c r="A251" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C251" s="9">
+        <v>42108</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="19"/>
+    </row>
+    <row r="252" spans="1:9" ht="24">
+      <c r="A252" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C252" s="9">
+        <v>42108</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="19"/>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C253" s="9">
+        <v>42108</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="19"/>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C254" s="9">
+        <v>42108</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="19"/>
+    </row>
+    <row r="255" spans="1:9" ht="24">
+      <c r="A255" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C255" s="9">
+        <v>42108</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="19"/>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C256" s="9">
+        <v>42110</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="19"/>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C257" s="9">
+        <v>42110</v>
+      </c>
+      <c r="D257" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="19"/>
+    </row>
+    <row r="258" spans="1:9" ht="24">
+      <c r="A258" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C258" s="9">
+        <v>42110</v>
+      </c>
+      <c r="D258" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G258" s="2"/>
+      <c r="H258" s="2"/>
+      <c r="I258" s="19"/>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C259" s="9">
+        <v>42110</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="19"/>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C260" s="9">
+        <v>42110</v>
+      </c>
+      <c r="D260" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="19"/>
+    </row>
+    <row r="261" spans="1:9" ht="24">
+      <c r="A261" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C261" s="9">
+        <v>42110</v>
+      </c>
+      <c r="D261" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
+      <c r="I261" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
